--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_12_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_12_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>683591.6001268936</v>
+        <v>748700.5342907165</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10437682.31011329</v>
+        <v>10468138.69511657</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11023074.59807983</v>
+        <v>11051580.61826448</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7490182.24141877</v>
+        <v>7475452.619929978</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>346.8349385842369</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>33.06595389426238</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.6729560199217</v>
+        <v>411.6952630391652</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>302.5297541387407</v>
       </c>
       <c r="I11" t="n">
-        <v>70.53873847619403</v>
+        <v>71.39872983557746</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>88.21028797629256</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.4014128471632</v>
+        <v>135.4133481546764</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>93.59407512775772</v>
       </c>
       <c r="I12" t="n">
-        <v>22.53032196995868</v>
+        <v>22.94125251372246</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>135.6094352333961</v>
+        <v>135.8311283356687</v>
       </c>
       <c r="T12" t="n">
-        <v>192.3366854209288</v>
+        <v>12.47363330747494</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8136120601822</v>
+        <v>225.8143972777818</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>37.58579306513041</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>195.815979481308</v>
       </c>
       <c r="T13" t="n">
-        <v>150.6303579253299</v>
+        <v>221.0315097615302</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2302187190875</v>
+        <v>286.2307645096813</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>48.18804760101934</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>149.469916723218</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.6952630391652</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>302.5297541387407</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>71.39872983557746</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>126.3064237640716</v>
+        <v>126.8147449650819</v>
       </c>
       <c r="T14" t="n">
-        <v>207.206481068835</v>
+        <v>207.3041300455733</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>86.3914143376858</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.4014128471632</v>
+        <v>135.4133481546764</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>22.94125251372246</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>135.6094352333961</v>
+        <v>135.8311283356687</v>
       </c>
       <c r="T15" t="n">
-        <v>155.6322298025415</v>
+        <v>192.3847930858612</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8136120601822</v>
+        <v>225.8143972777818</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>64.08291989989438</v>
       </c>
       <c r="G16" t="n">
-        <v>96.10388158447452</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.8400024774763</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>104.0838226109871</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>195.6415993865939</v>
+        <v>195.815979481308</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.0315097615302</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2302187190875</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.6729560199217</v>
+        <v>26.76528238142125</v>
       </c>
       <c r="H17" t="n">
-        <v>302.3013023779137</v>
+        <v>302.5297541387407</v>
       </c>
       <c r="I17" t="n">
-        <v>66.05652775467277</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>126.8147449650819</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>207.3041300455733</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0570549497589</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>5.218152044630905</v>
+        <v>72.03751601776945</v>
       </c>
       <c r="H18" t="n">
-        <v>93.47880518414398</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>135.6094352333961</v>
+        <v>135.8311283356687</v>
       </c>
       <c r="T18" t="n">
-        <v>192.3366854209288</v>
+        <v>192.3847930858612</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8136120601822</v>
+        <v>225.8143972777818</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3627843393969</v>
+        <v>166.3727905002829</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.6415993865939</v>
+        <v>195.8159794813081</v>
       </c>
       <c r="T19" t="n">
-        <v>220.9887561650171</v>
+        <v>221.0315097615302</v>
       </c>
       <c r="U19" t="n">
-        <v>167.3932480622417</v>
+        <v>286.2307645096813</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>57.1797134619689</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>177.4260931660991</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.6729560199217</v>
+        <v>411.6952630391652</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>70.53873847619403</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>126.3064237640716</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>225.6907794944476</v>
+        <v>251.0570549497589</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,7 +2174,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.4014128471632</v>
+        <v>72.03751601776945</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>135.6094352333961</v>
+        <v>135.8311283356686</v>
       </c>
       <c r="T21" t="n">
-        <v>192.3366854209288</v>
+        <v>192.3847930858612</v>
       </c>
       <c r="U21" t="n">
-        <v>189.1091564417939</v>
+        <v>225.8143972777818</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.2301086850494</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>147.7510386106894</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>195.6415993865939</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>120.3615829479999</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>284.0356571615446</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>203.7892779811713</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>132.2512035426514</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.3387326418233</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.547702772954</v>
+        <v>138.1457046486333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>122.6698830025313</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>113.7539922160804</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>194.6624603617375</v>
@@ -2769,19 +2769,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>103.3387326418233</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>274.2843856189347</v>
       </c>
       <c r="G29" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
-        <v>146.9246168288999</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H30" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269653</v>
       </c>
       <c r="I30" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>47.06289814933472</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>164.9058306311732</v>
       </c>
       <c r="U31" t="n">
         <v>286.2271541212006</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>235.240094911795</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
         <v>65.70991267247049</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
-        <v>81.21470415642989</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I33" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
-        <v>50.66298556015624</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>110.4254304669548</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>252.2706076408436</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.547702772954</v>
+        <v>257.4537670394488</v>
       </c>
       <c r="H35" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>136.8917226135564</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>105.5027752869404</v>
       </c>
       <c r="U37" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>146.6428693772832</v>
       </c>
       <c r="C38" t="n">
-        <v>85.22092285818903</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3599,10 +3599,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H39" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269653</v>
       </c>
       <c r="I39" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3066000448042</v>
+        <v>152.5801449806295</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
-        <v>8.826231050087831</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>244.8385879662343</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,7 +3757,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>23.47240143010579</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I42" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.5027752869404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
         <v>286.2271541212006</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>125.2942148585659</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>160.1789165132249</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>13.96171158042315</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>79.41653965146601</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>62.15530575449299</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2059.277203126638</v>
+        <v>2029.647472394094</v>
       </c>
       <c r="C11" t="n">
-        <v>1690.314686186226</v>
+        <v>1996.247518965547</v>
       </c>
       <c r="D11" t="n">
-        <v>1332.048987579476</v>
+        <v>1637.981820358796</v>
       </c>
       <c r="E11" t="n">
-        <v>946.2607349812317</v>
+        <v>1252.193567760552</v>
       </c>
       <c r="F11" t="n">
-        <v>535.2748301916242</v>
+        <v>841.2076629709443</v>
       </c>
       <c r="G11" t="n">
-        <v>119.4435614846325</v>
+        <v>425.3538619212824</v>
       </c>
       <c r="H11" t="n">
-        <v>119.4435614846325</v>
+        <v>119.7682516801301</v>
       </c>
       <c r="I11" t="n">
-        <v>48.19231049857795</v>
+        <v>47.64832255328417</v>
       </c>
       <c r="J11" t="n">
-        <v>173.9493005247273</v>
+        <v>171.5309650086642</v>
       </c>
       <c r="K11" t="n">
-        <v>413.1649476832216</v>
+        <v>407.9374510330595</v>
       </c>
       <c r="L11" t="n">
-        <v>746.8348727357529</v>
+        <v>738.1223632957215</v>
       </c>
       <c r="M11" t="n">
-        <v>1149.776393112417</v>
+        <v>1137.186135453579</v>
       </c>
       <c r="N11" t="n">
-        <v>1563.851736929998</v>
+        <v>1547.320985032113</v>
       </c>
       <c r="O11" t="n">
-        <v>1941.516081055137</v>
+        <v>1921.264432186581</v>
       </c>
       <c r="P11" t="n">
-        <v>2229.34286033358</v>
+        <v>2205.915511986551</v>
       </c>
       <c r="Q11" t="n">
-        <v>2397.316038134681</v>
+        <v>2371.503871734568</v>
       </c>
       <c r="R11" t="n">
-        <v>2409.615524928898</v>
+        <v>2382.416127664208</v>
       </c>
       <c r="S11" t="n">
-        <v>2409.615524928898</v>
+        <v>2382.416127664208</v>
       </c>
       <c r="T11" t="n">
-        <v>2409.615524928898</v>
+        <v>2382.416127664208</v>
       </c>
       <c r="U11" t="n">
-        <v>2409.615524928898</v>
+        <v>2382.416127664208</v>
       </c>
       <c r="V11" t="n">
-        <v>2409.615524928898</v>
+        <v>2382.416127664208</v>
       </c>
       <c r="W11" t="n">
-        <v>2409.615524928898</v>
+        <v>2029.647472394094</v>
       </c>
       <c r="X11" t="n">
-        <v>2409.615524928898</v>
+        <v>2029.647472394094</v>
       </c>
       <c r="Y11" t="n">
-        <v>2409.615524928898</v>
+        <v>2029.647472394094</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>777.0456586102093</v>
+        <v>931.3013863895427</v>
       </c>
       <c r="C12" t="n">
-        <v>602.5926293290823</v>
+        <v>756.8483571084157</v>
       </c>
       <c r="D12" t="n">
-        <v>513.4913283429282</v>
+        <v>607.9139474471644</v>
       </c>
       <c r="E12" t="n">
-        <v>354.2538733374727</v>
+        <v>448.6764924417089</v>
       </c>
       <c r="F12" t="n">
-        <v>207.7193153643577</v>
+        <v>302.1419344685938</v>
       </c>
       <c r="G12" t="n">
-        <v>70.9502114783342</v>
+        <v>165.3607747163955</v>
       </c>
       <c r="H12" t="n">
-        <v>70.9502114783342</v>
+        <v>70.82130489037756</v>
       </c>
       <c r="I12" t="n">
-        <v>48.19231049857795</v>
+        <v>47.64832255328417</v>
       </c>
       <c r="J12" t="n">
-        <v>229.1045902665352</v>
+        <v>102.6141287616528</v>
       </c>
       <c r="K12" t="n">
-        <v>403.1127501462962</v>
+        <v>274.7142711214834</v>
       </c>
       <c r="L12" t="n">
-        <v>683.41073620048</v>
+        <v>552.4466921561338</v>
       </c>
       <c r="M12" t="n">
-        <v>1029.862133296092</v>
+        <v>895.9041958838345</v>
       </c>
       <c r="N12" t="n">
-        <v>1626.241975715994</v>
+        <v>1262.860642661256</v>
       </c>
       <c r="O12" t="n">
-        <v>1942.526954699752</v>
+        <v>1817.358709763898</v>
       </c>
       <c r="P12" t="n">
-        <v>2177.040468267244</v>
+        <v>2049.615894277346</v>
       </c>
       <c r="Q12" t="n">
-        <v>2389.396761393579</v>
+        <v>2362.930989791278</v>
       </c>
       <c r="R12" t="n">
-        <v>2409.615524928898</v>
+        <v>2382.416127664208</v>
       </c>
       <c r="S12" t="n">
-        <v>2272.636297420417</v>
+        <v>2245.21296772919</v>
       </c>
       <c r="T12" t="n">
-        <v>2078.356817197256</v>
+        <v>2232.61333812568</v>
       </c>
       <c r="U12" t="n">
-        <v>1850.262259560708</v>
+        <v>2004.517987340042</v>
       </c>
       <c r="V12" t="n">
-        <v>1615.110151328966</v>
+        <v>1769.365879108299</v>
       </c>
       <c r="W12" t="n">
-        <v>1360.872794600764</v>
+        <v>1515.128522380097</v>
       </c>
       <c r="X12" t="n">
-        <v>1153.021294395231</v>
+        <v>1307.277022174565</v>
       </c>
       <c r="Y12" t="n">
-        <v>945.2609956302774</v>
+        <v>1099.516723409611</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>217.1284934264849</v>
+        <v>85.61377009381994</v>
       </c>
       <c r="C13" t="n">
-        <v>48.19231049857795</v>
+        <v>85.61377009381994</v>
       </c>
       <c r="D13" t="n">
-        <v>48.19231049857795</v>
+        <v>85.61377009381994</v>
       </c>
       <c r="E13" t="n">
-        <v>48.19231049857795</v>
+        <v>85.61377009381994</v>
       </c>
       <c r="F13" t="n">
-        <v>48.19231049857795</v>
+        <v>85.61377009381994</v>
       </c>
       <c r="G13" t="n">
-        <v>48.19231049857795</v>
+        <v>47.64832255328417</v>
       </c>
       <c r="H13" t="n">
-        <v>48.19231049857795</v>
+        <v>47.64832255328417</v>
       </c>
       <c r="I13" t="n">
-        <v>48.19231049857795</v>
+        <v>47.64832255328417</v>
       </c>
       <c r="J13" t="n">
-        <v>69.72897615227009</v>
+        <v>68.4846269880789</v>
       </c>
       <c r="K13" t="n">
-        <v>234.9571703371435</v>
+        <v>232.5619125478387</v>
       </c>
       <c r="L13" t="n">
-        <v>501.9188074204985</v>
+        <v>498.0507828350193</v>
       </c>
       <c r="M13" t="n">
-        <v>793.7815460358767</v>
+        <v>788.3606953609738</v>
       </c>
       <c r="N13" t="n">
-        <v>1084.139057494131</v>
+        <v>1077.202303463474</v>
       </c>
       <c r="O13" t="n">
-        <v>1336.314919536397</v>
+        <v>1327.977983400633</v>
       </c>
       <c r="P13" t="n">
-        <v>1528.574252011035</v>
+        <v>1519.039218195419</v>
       </c>
       <c r="Q13" t="n">
-        <v>1578.249568077068</v>
+        <v>1567.885033530159</v>
       </c>
       <c r="R13" t="n">
-        <v>1578.249568077068</v>
+        <v>1567.885033530159</v>
       </c>
       <c r="S13" t="n">
-        <v>1578.249568077068</v>
+        <v>1370.091114862171</v>
       </c>
       <c r="T13" t="n">
-        <v>1426.097691384816</v>
+        <v>1146.826963587898</v>
       </c>
       <c r="U13" t="n">
-        <v>1136.976258335233</v>
+        <v>857.7049792346847</v>
       </c>
       <c r="V13" t="n">
-        <v>1136.976258335233</v>
+        <v>603.0204910287979</v>
       </c>
       <c r="W13" t="n">
-        <v>847.5590882982721</v>
+        <v>313.6033209918373</v>
       </c>
       <c r="X13" t="n">
-        <v>619.5695374002547</v>
+        <v>85.61377009381994</v>
       </c>
       <c r="Y13" t="n">
-        <v>398.7769582567246</v>
+        <v>85.61377009381994</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>943.225975565409</v>
+        <v>2044.922314522132</v>
       </c>
       <c r="C14" t="n">
-        <v>943.225975565409</v>
+        <v>1996.247518965547</v>
       </c>
       <c r="D14" t="n">
-        <v>584.9602769586586</v>
+        <v>1637.981820358796</v>
       </c>
       <c r="E14" t="n">
-        <v>199.1720243604144</v>
+        <v>1252.193567760552</v>
       </c>
       <c r="F14" t="n">
-        <v>48.19231049857795</v>
+        <v>841.2076629709443</v>
       </c>
       <c r="G14" t="n">
-        <v>48.19231049857795</v>
+        <v>425.3538619212824</v>
       </c>
       <c r="H14" t="n">
-        <v>48.19231049857795</v>
+        <v>119.7682516801301</v>
       </c>
       <c r="I14" t="n">
-        <v>48.19231049857795</v>
+        <v>47.64832255328415</v>
       </c>
       <c r="J14" t="n">
-        <v>173.9493005247273</v>
+        <v>171.5309650086641</v>
       </c>
       <c r="K14" t="n">
-        <v>413.1649476832216</v>
+        <v>407.9374510330592</v>
       </c>
       <c r="L14" t="n">
-        <v>746.8348727357529</v>
+        <v>738.1223632957208</v>
       </c>
       <c r="M14" t="n">
-        <v>1149.776393112416</v>
+        <v>1137.186135453579</v>
       </c>
       <c r="N14" t="n">
-        <v>1563.851736929997</v>
+        <v>1547.320985032113</v>
       </c>
       <c r="O14" t="n">
-        <v>1941.516081055136</v>
+        <v>1921.26443218658</v>
       </c>
       <c r="P14" t="n">
-        <v>2229.34286033358</v>
+        <v>2205.91551198655</v>
       </c>
       <c r="Q14" t="n">
-        <v>2397.316038134681</v>
+        <v>2371.503871734567</v>
       </c>
       <c r="R14" t="n">
-        <v>2409.615524928898</v>
+        <v>2382.416127664208</v>
       </c>
       <c r="S14" t="n">
-        <v>2282.033278702563</v>
+        <v>2254.320425679276</v>
       </c>
       <c r="T14" t="n">
-        <v>2072.733802875457</v>
+        <v>2044.922314522132</v>
       </c>
       <c r="U14" t="n">
-        <v>2072.733802875457</v>
+        <v>2044.922314522132</v>
       </c>
       <c r="V14" t="n">
-        <v>2072.733802875457</v>
+        <v>2044.922314522132</v>
       </c>
       <c r="W14" t="n">
-        <v>1719.965147605343</v>
+        <v>2044.922314522132</v>
       </c>
       <c r="X14" t="n">
-        <v>1719.965147605343</v>
+        <v>2044.922314522132</v>
       </c>
       <c r="Y14" t="n">
-        <v>1329.825815629531</v>
+        <v>2044.922314522132</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>814.1208663055503</v>
+        <v>749.5729421689491</v>
       </c>
       <c r="C15" t="n">
-        <v>639.6678370244233</v>
+        <v>662.3088872823978</v>
       </c>
       <c r="D15" t="n">
-        <v>490.733427363172</v>
+        <v>513.3744776211465</v>
       </c>
       <c r="E15" t="n">
-        <v>331.4959723577165</v>
+        <v>354.137022615691</v>
       </c>
       <c r="F15" t="n">
-        <v>184.9614143846014</v>
+        <v>207.6024646425759</v>
       </c>
       <c r="G15" t="n">
-        <v>48.19231049857795</v>
+        <v>70.82130489037755</v>
       </c>
       <c r="H15" t="n">
-        <v>48.19231049857795</v>
+        <v>70.82130489037755</v>
       </c>
       <c r="I15" t="n">
-        <v>48.19231049857795</v>
+        <v>47.64832255328415</v>
       </c>
       <c r="J15" t="n">
-        <v>229.1045902665352</v>
+        <v>102.6141287616528</v>
       </c>
       <c r="K15" t="n">
-        <v>526.9959143652893</v>
+        <v>274.7142711214833</v>
       </c>
       <c r="L15" t="n">
-        <v>807.2939004194729</v>
+        <v>864.3622627183747</v>
       </c>
       <c r="M15" t="n">
-        <v>1153.745297515085</v>
+        <v>1344.905115003307</v>
       </c>
       <c r="N15" t="n">
-        <v>1523.774877109258</v>
+        <v>1711.861561780729</v>
       </c>
       <c r="O15" t="n">
-        <v>1840.059856093016</v>
+        <v>2025.335224622388</v>
       </c>
       <c r="P15" t="n">
-        <v>2074.573369660508</v>
+        <v>2257.592409135836</v>
       </c>
       <c r="Q15" t="n">
-        <v>2389.396761393579</v>
+        <v>2362.930989791277</v>
       </c>
       <c r="R15" t="n">
-        <v>2409.615524928898</v>
+        <v>2382.416127664208</v>
       </c>
       <c r="S15" t="n">
-        <v>2272.636297420417</v>
+        <v>2245.212967729189</v>
       </c>
       <c r="T15" t="n">
-        <v>2115.432024892597</v>
+        <v>2050.884893905086</v>
       </c>
       <c r="U15" t="n">
-        <v>1887.337467256049</v>
+        <v>1822.789543119448</v>
       </c>
       <c r="V15" t="n">
-        <v>1652.185359024307</v>
+        <v>1587.637434887705</v>
       </c>
       <c r="W15" t="n">
-        <v>1397.948002296105</v>
+        <v>1333.400078159504</v>
       </c>
       <c r="X15" t="n">
-        <v>1190.096502090572</v>
+        <v>1125.548577953971</v>
       </c>
       <c r="Y15" t="n">
-        <v>982.3362033256183</v>
+        <v>917.7882791890172</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>442.2735252719296</v>
+        <v>261.7118805102242</v>
       </c>
       <c r="C16" t="n">
-        <v>442.2735252719296</v>
+        <v>261.7118805102242</v>
       </c>
       <c r="D16" t="n">
-        <v>292.1568858595939</v>
+        <v>261.7118805102242</v>
       </c>
       <c r="E16" t="n">
-        <v>292.1568858595939</v>
+        <v>261.7118805102242</v>
       </c>
       <c r="F16" t="n">
-        <v>145.2669383616835</v>
+        <v>196.9816583891188</v>
       </c>
       <c r="G16" t="n">
-        <v>48.19231049857795</v>
+        <v>196.9816583891188</v>
       </c>
       <c r="H16" t="n">
-        <v>48.19231049857795</v>
+        <v>47.64832255328415</v>
       </c>
       <c r="I16" t="n">
-        <v>48.19231049857795</v>
+        <v>47.64832255328415</v>
       </c>
       <c r="J16" t="n">
-        <v>69.72897615227009</v>
+        <v>68.48462698807889</v>
       </c>
       <c r="K16" t="n">
-        <v>234.9571703371435</v>
+        <v>232.5619125478387</v>
       </c>
       <c r="L16" t="n">
-        <v>501.9188074204985</v>
+        <v>498.0507828350193</v>
       </c>
       <c r="M16" t="n">
-        <v>793.7815460358767</v>
+        <v>788.3606953609738</v>
       </c>
       <c r="N16" t="n">
-        <v>1084.139057494131</v>
+        <v>1077.202303463474</v>
       </c>
       <c r="O16" t="n">
-        <v>1336.314919536397</v>
+        <v>1327.977983400633</v>
       </c>
       <c r="P16" t="n">
-        <v>1528.574252011035</v>
+        <v>1519.039218195419</v>
       </c>
       <c r="Q16" t="n">
-        <v>1578.249568077068</v>
+        <v>1567.885033530159</v>
       </c>
       <c r="R16" t="n">
-        <v>1473.114393722536</v>
+        <v>1567.885033530159</v>
       </c>
       <c r="S16" t="n">
-        <v>1275.49661656436</v>
+        <v>1370.091114862171</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.49661656436</v>
+        <v>1146.826963587898</v>
       </c>
       <c r="U16" t="n">
-        <v>986.3751835147771</v>
+        <v>1146.826963587898</v>
       </c>
       <c r="V16" t="n">
-        <v>731.6906953088902</v>
+        <v>892.1424753820114</v>
       </c>
       <c r="W16" t="n">
-        <v>442.2735252719296</v>
+        <v>892.1424753820114</v>
       </c>
       <c r="X16" t="n">
-        <v>442.2735252719296</v>
+        <v>664.1529244839941</v>
       </c>
       <c r="Y16" t="n">
-        <v>442.2735252719296</v>
+        <v>443.3603453404639</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1632.876352888963</v>
+        <v>1107.497787110711</v>
       </c>
       <c r="C17" t="n">
-        <v>1632.876352888963</v>
+        <v>738.5352701702993</v>
       </c>
       <c r="D17" t="n">
-        <v>1632.876352888963</v>
+        <v>380.2695715635488</v>
       </c>
       <c r="E17" t="n">
-        <v>1247.088100290719</v>
+        <v>380.2695715635488</v>
       </c>
       <c r="F17" t="n">
-        <v>836.1021955011115</v>
+        <v>380.2695715635488</v>
       </c>
       <c r="G17" t="n">
-        <v>420.2709267941198</v>
+        <v>353.2339327944364</v>
       </c>
       <c r="H17" t="n">
-        <v>114.9160759073383</v>
+        <v>47.64832255328416</v>
       </c>
       <c r="I17" t="n">
-        <v>48.19231049857794</v>
+        <v>47.64832255328416</v>
       </c>
       <c r="J17" t="n">
-        <v>173.9493005247273</v>
+        <v>171.5309650086647</v>
       </c>
       <c r="K17" t="n">
-        <v>413.1649476832216</v>
+        <v>407.9374510330595</v>
       </c>
       <c r="L17" t="n">
-        <v>746.8348727357525</v>
+        <v>738.1223632957215</v>
       </c>
       <c r="M17" t="n">
-        <v>1149.776393112416</v>
+        <v>1137.186135453579</v>
       </c>
       <c r="N17" t="n">
-        <v>1563.851736929997</v>
+        <v>1547.320985032113</v>
       </c>
       <c r="O17" t="n">
-        <v>1941.516081055136</v>
+        <v>1921.264432186581</v>
       </c>
       <c r="P17" t="n">
-        <v>2229.342860333579</v>
+        <v>2205.91551198655</v>
       </c>
       <c r="Q17" t="n">
-        <v>2397.31603813468</v>
+        <v>2371.503871734568</v>
       </c>
       <c r="R17" t="n">
-        <v>2409.615524928897</v>
+        <v>2382.416127664208</v>
       </c>
       <c r="S17" t="n">
-        <v>2409.615524928897</v>
+        <v>2254.320425679277</v>
       </c>
       <c r="T17" t="n">
-        <v>2409.615524928897</v>
+        <v>2044.922314522132</v>
       </c>
       <c r="U17" t="n">
-        <v>2409.615524928897</v>
+        <v>1791.329329724396</v>
       </c>
       <c r="V17" t="n">
-        <v>2409.615524928897</v>
+        <v>1460.266442380825</v>
       </c>
       <c r="W17" t="n">
-        <v>2409.615524928897</v>
+        <v>1107.497787110711</v>
       </c>
       <c r="X17" t="n">
-        <v>2409.615524928897</v>
+        <v>1107.497787110711</v>
       </c>
       <c r="Y17" t="n">
-        <v>2019.476192953085</v>
+        <v>1107.497787110711</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>777.0456586102084</v>
+        <v>749.5729421689496</v>
       </c>
       <c r="C18" t="n">
-        <v>602.5926293290814</v>
+        <v>575.1199128878226</v>
       </c>
       <c r="D18" t="n">
-        <v>453.6582196678302</v>
+        <v>426.1855032265713</v>
       </c>
       <c r="E18" t="n">
-        <v>294.4207646623747</v>
+        <v>266.9480482211158</v>
       </c>
       <c r="F18" t="n">
-        <v>147.8862066892596</v>
+        <v>120.4134902480008</v>
       </c>
       <c r="G18" t="n">
-        <v>142.6153460381173</v>
+        <v>47.64832255328416</v>
       </c>
       <c r="H18" t="n">
-        <v>48.19231049857794</v>
+        <v>47.64832255328416</v>
       </c>
       <c r="I18" t="n">
-        <v>48.19231049857794</v>
+        <v>47.64832255328416</v>
       </c>
       <c r="J18" t="n">
-        <v>104.2744652795305</v>
+        <v>102.6141287616528</v>
       </c>
       <c r="K18" t="n">
-        <v>439.9130518055601</v>
+        <v>274.7142711214832</v>
       </c>
       <c r="L18" t="n">
-        <v>720.2110378597438</v>
+        <v>552.4466921561335</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.662434955356</v>
+        <v>895.9041958838341</v>
       </c>
       <c r="N18" t="n">
-        <v>1436.692014549529</v>
+        <v>1262.860642661256</v>
       </c>
       <c r="O18" t="n">
-        <v>1752.976993533287</v>
+        <v>1576.334305502915</v>
       </c>
       <c r="P18" t="n">
-        <v>2302.768648054317</v>
+        <v>2123.8696309699</v>
       </c>
       <c r="Q18" t="n">
-        <v>2409.615524928897</v>
+        <v>2382.416127664208</v>
       </c>
       <c r="R18" t="n">
-        <v>2409.615524928897</v>
+        <v>2382.416127664208</v>
       </c>
       <c r="S18" t="n">
-        <v>2272.636297420416</v>
+        <v>2245.212967729189</v>
       </c>
       <c r="T18" t="n">
-        <v>2078.356817197255</v>
+        <v>2050.884893905087</v>
       </c>
       <c r="U18" t="n">
-        <v>1850.262259560707</v>
+        <v>1822.789543119449</v>
       </c>
       <c r="V18" t="n">
-        <v>1615.110151328965</v>
+        <v>1587.637434887706</v>
       </c>
       <c r="W18" t="n">
-        <v>1360.872794600763</v>
+        <v>1333.400078159504</v>
       </c>
       <c r="X18" t="n">
-        <v>1153.02129439523</v>
+        <v>1125.548577953972</v>
       </c>
       <c r="Y18" t="n">
-        <v>945.2609956302765</v>
+        <v>917.7882791890177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>216.2355270030193</v>
+        <v>363.6147398733368</v>
       </c>
       <c r="C19" t="n">
-        <v>216.2355270030193</v>
+        <v>363.6147398733368</v>
       </c>
       <c r="D19" t="n">
-        <v>216.2355270030193</v>
+        <v>363.6147398733368</v>
       </c>
       <c r="E19" t="n">
-        <v>216.2355270030193</v>
+        <v>215.7016462909437</v>
       </c>
       <c r="F19" t="n">
-        <v>216.2355270030193</v>
+        <v>215.7016462909437</v>
       </c>
       <c r="G19" t="n">
-        <v>48.19231049857794</v>
+        <v>47.64832255328416</v>
       </c>
       <c r="H19" t="n">
-        <v>48.19231049857794</v>
+        <v>47.64832255328416</v>
       </c>
       <c r="I19" t="n">
-        <v>48.19231049857794</v>
+        <v>47.64832255328416</v>
       </c>
       <c r="J19" t="n">
-        <v>69.72897615227009</v>
+        <v>68.48462698807887</v>
       </c>
       <c r="K19" t="n">
-        <v>234.9571703371435</v>
+        <v>232.5619125478386</v>
       </c>
       <c r="L19" t="n">
-        <v>501.9188074204985</v>
+        <v>498.050782835019</v>
       </c>
       <c r="M19" t="n">
-        <v>793.7815460358767</v>
+        <v>788.3606953609735</v>
       </c>
       <c r="N19" t="n">
-        <v>1084.139057494131</v>
+        <v>1077.202303463474</v>
       </c>
       <c r="O19" t="n">
-        <v>1336.314919536397</v>
+        <v>1327.977983400633</v>
       </c>
       <c r="P19" t="n">
-        <v>1528.574252011035</v>
+        <v>1519.039218195418</v>
       </c>
       <c r="Q19" t="n">
-        <v>1578.249568077068</v>
+        <v>1567.885033530159</v>
       </c>
       <c r="R19" t="n">
-        <v>1578.249568077068</v>
+        <v>1567.885033530159</v>
       </c>
       <c r="S19" t="n">
-        <v>1380.631790918893</v>
+        <v>1370.091114862171</v>
       </c>
       <c r="T19" t="n">
-        <v>1157.410825095643</v>
+        <v>1146.826963587898</v>
       </c>
       <c r="U19" t="n">
-        <v>988.326736143884</v>
+        <v>857.7049792346845</v>
       </c>
       <c r="V19" t="n">
-        <v>733.6422479379971</v>
+        <v>603.0204910287977</v>
       </c>
       <c r="W19" t="n">
-        <v>444.2250779010366</v>
+        <v>603.0204910287977</v>
       </c>
       <c r="X19" t="n">
-        <v>216.2355270030193</v>
+        <v>603.0204910287977</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.2355270030193</v>
+        <v>545.2632047035765</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>946.2607349812317</v>
+        <v>1797.760255522901</v>
       </c>
       <c r="C20" t="n">
-        <v>946.2607349812317</v>
+        <v>1618.541979597548</v>
       </c>
       <c r="D20" t="n">
-        <v>946.2607349812317</v>
+        <v>1260.276280990798</v>
       </c>
       <c r="E20" t="n">
-        <v>946.2607349812317</v>
+        <v>874.4880283925536</v>
       </c>
       <c r="F20" t="n">
-        <v>535.2748301916242</v>
+        <v>463.502123602946</v>
       </c>
       <c r="G20" t="n">
-        <v>119.4435614846325</v>
+        <v>47.64832255328416</v>
       </c>
       <c r="H20" t="n">
-        <v>119.4435614846325</v>
+        <v>47.64832255328416</v>
       </c>
       <c r="I20" t="n">
-        <v>48.19231049857794</v>
+        <v>47.64832255328416</v>
       </c>
       <c r="J20" t="n">
-        <v>173.9493005247272</v>
+        <v>171.5309650086642</v>
       </c>
       <c r="K20" t="n">
-        <v>413.1649476832215</v>
+        <v>407.9374510330593</v>
       </c>
       <c r="L20" t="n">
-        <v>746.8348727357529</v>
+        <v>738.122363295721</v>
       </c>
       <c r="M20" t="n">
-        <v>1149.776393112416</v>
+        <v>1137.186135453579</v>
       </c>
       <c r="N20" t="n">
-        <v>1563.851736929997</v>
+        <v>1547.320985032113</v>
       </c>
       <c r="O20" t="n">
-        <v>1941.516081055136</v>
+        <v>1921.264432186581</v>
       </c>
       <c r="P20" t="n">
-        <v>2229.342860333579</v>
+        <v>2205.91551198655</v>
       </c>
       <c r="Q20" t="n">
-        <v>2397.31603813468</v>
+        <v>2371.503871734568</v>
       </c>
       <c r="R20" t="n">
-        <v>2409.615524928897</v>
+        <v>2382.416127664208</v>
       </c>
       <c r="S20" t="n">
-        <v>2282.033278702562</v>
+        <v>2382.416127664208</v>
       </c>
       <c r="T20" t="n">
-        <v>2282.033278702562</v>
+        <v>2382.416127664208</v>
       </c>
       <c r="U20" t="n">
-        <v>2054.062794364736</v>
+        <v>2128.823142866472</v>
       </c>
       <c r="V20" t="n">
-        <v>1722.999907021165</v>
+        <v>1797.760255522901</v>
       </c>
       <c r="W20" t="n">
-        <v>1722.999907021165</v>
+        <v>1797.760255522901</v>
       </c>
       <c r="X20" t="n">
-        <v>1722.999907021165</v>
+        <v>1797.760255522901</v>
       </c>
       <c r="Y20" t="n">
-        <v>1332.860575045353</v>
+        <v>1797.760255522901</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>814.1208663055503</v>
+        <v>749.5729421689496</v>
       </c>
       <c r="C21" t="n">
-        <v>639.6678370244233</v>
+        <v>575.1199128878226</v>
       </c>
       <c r="D21" t="n">
-        <v>490.733427363172</v>
+        <v>426.1855032265713</v>
       </c>
       <c r="E21" t="n">
-        <v>331.4959723577165</v>
+        <v>266.9480482211158</v>
       </c>
       <c r="F21" t="n">
-        <v>184.9614143846014</v>
+        <v>120.4134902480008</v>
       </c>
       <c r="G21" t="n">
-        <v>48.19231049857794</v>
+        <v>47.64832255328416</v>
       </c>
       <c r="H21" t="n">
-        <v>48.19231049857794</v>
+        <v>47.64832255328416</v>
       </c>
       <c r="I21" t="n">
-        <v>48.19231049857794</v>
+        <v>47.64832255328416</v>
       </c>
       <c r="J21" t="n">
-        <v>104.2744652795305</v>
+        <v>227.4442537486576</v>
       </c>
       <c r="K21" t="n">
-        <v>419.6942882702413</v>
+        <v>399.5443961084882</v>
       </c>
       <c r="L21" t="n">
-        <v>699.9922743244249</v>
+        <v>677.2768171431387</v>
       </c>
       <c r="M21" t="n">
-        <v>1046.443671420037</v>
+        <v>1020.734320870839</v>
       </c>
       <c r="N21" t="n">
-        <v>1416.47325101421</v>
+        <v>1387.690767648261</v>
       </c>
       <c r="O21" t="n">
-        <v>1732.758229997968</v>
+        <v>1701.16443048992</v>
       </c>
       <c r="P21" t="n">
-        <v>2282.549884518998</v>
+        <v>2049.615894277346</v>
       </c>
       <c r="Q21" t="n">
-        <v>2389.396761393578</v>
+        <v>2362.930989791277</v>
       </c>
       <c r="R21" t="n">
-        <v>2409.615524928897</v>
+        <v>2382.416127664208</v>
       </c>
       <c r="S21" t="n">
-        <v>2272.636297420416</v>
+        <v>2245.212967729189</v>
       </c>
       <c r="T21" t="n">
-        <v>2078.356817197255</v>
+        <v>2050.884893905087</v>
       </c>
       <c r="U21" t="n">
-        <v>1887.337467256049</v>
+        <v>1822.789543119449</v>
       </c>
       <c r="V21" t="n">
-        <v>1652.185359024307</v>
+        <v>1587.637434887706</v>
       </c>
       <c r="W21" t="n">
-        <v>1397.948002296105</v>
+        <v>1333.400078159504</v>
       </c>
       <c r="X21" t="n">
-        <v>1190.096502090572</v>
+        <v>1125.548577953972</v>
       </c>
       <c r="Y21" t="n">
-        <v>982.3362033256183</v>
+        <v>917.7882791890177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>978.1907469451229</v>
+        <v>492.5680030459233</v>
       </c>
       <c r="C22" t="n">
-        <v>809.254564017216</v>
+        <v>492.5680030459233</v>
       </c>
       <c r="D22" t="n">
-        <v>659.1379246048803</v>
+        <v>342.4513636335876</v>
       </c>
       <c r="E22" t="n">
-        <v>511.2248310224871</v>
+        <v>194.5382700511945</v>
       </c>
       <c r="F22" t="n">
-        <v>364.3348835245768</v>
+        <v>47.64832255328416</v>
       </c>
       <c r="G22" t="n">
-        <v>197.4357838427086</v>
+        <v>47.64832255328416</v>
       </c>
       <c r="H22" t="n">
-        <v>48.19231049857794</v>
+        <v>47.64832255328416</v>
       </c>
       <c r="I22" t="n">
-        <v>48.19231049857794</v>
+        <v>47.64832255328416</v>
       </c>
       <c r="J22" t="n">
-        <v>69.72897615227006</v>
+        <v>68.4846269880789</v>
       </c>
       <c r="K22" t="n">
-        <v>234.9571703371435</v>
+        <v>232.5619125478387</v>
       </c>
       <c r="L22" t="n">
-        <v>501.9188074204984</v>
+        <v>498.0507828350193</v>
       </c>
       <c r="M22" t="n">
-        <v>793.7815460358765</v>
+        <v>788.3606953609738</v>
       </c>
       <c r="N22" t="n">
-        <v>1084.139057494131</v>
+        <v>1077.202303463474</v>
       </c>
       <c r="O22" t="n">
-        <v>1336.314919536397</v>
+        <v>1327.977983400633</v>
       </c>
       <c r="P22" t="n">
-        <v>1528.574252011035</v>
+        <v>1519.039218195419</v>
       </c>
       <c r="Q22" t="n">
-        <v>1578.249568077068</v>
+        <v>1567.885033530159</v>
       </c>
       <c r="R22" t="n">
-        <v>1578.249568077068</v>
+        <v>1567.885033530159</v>
       </c>
       <c r="S22" t="n">
-        <v>1380.631790918893</v>
+        <v>1567.885033530159</v>
       </c>
       <c r="T22" t="n">
-        <v>1380.631790918893</v>
+        <v>1567.885033530159</v>
       </c>
       <c r="U22" t="n">
-        <v>1380.631790918893</v>
+        <v>1446.307677017028</v>
       </c>
       <c r="V22" t="n">
-        <v>1380.631790918893</v>
+        <v>1191.623188811141</v>
       </c>
       <c r="W22" t="n">
-        <v>1380.631790918893</v>
+        <v>902.2060187741804</v>
       </c>
       <c r="X22" t="n">
-        <v>1380.631790918893</v>
+        <v>674.2164678761631</v>
       </c>
       <c r="Y22" t="n">
-        <v>1159.839211775363</v>
+        <v>674.2164678761631</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1412.134398099142</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="C23" t="n">
-        <v>1412.134398099142</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="D23" t="n">
-        <v>1053.868699492392</v>
+        <v>1057.915385049724</v>
       </c>
       <c r="E23" t="n">
-        <v>668.0804468941474</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="F23" t="n">
-        <v>257.0945421045398</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G23" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H23" t="n">
         <v>51.24678656800311</v>
@@ -6019,22 +6019,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T23" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U23" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V23" t="n">
-        <v>2562.339328400155</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W23" t="n">
-        <v>2562.339328400155</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X23" t="n">
-        <v>2188.873570139076</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="Y23" t="n">
-        <v>1798.734238163264</v>
+        <v>1416.181083656475</v>
       </c>
     </row>
     <row r="24">
@@ -6071,25 +6071,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K24" t="n">
-        <v>684.9695361605188</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L24" t="n">
-        <v>979.6730931919906</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M24" t="n">
-        <v>1342.935112151211</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N24" t="n">
-        <v>1730.220240748156</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O24" t="n">
-        <v>2062.290675924318</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P24" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q24" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R24" t="n">
         <v>2562.339328400155</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51.24678656800311</v>
+        <v>331.72380835142</v>
       </c>
       <c r="C25" t="n">
-        <v>51.24678656800311</v>
+        <v>331.72380835142</v>
       </c>
       <c r="D25" t="n">
-        <v>51.24678656800311</v>
+        <v>331.72380835142</v>
       </c>
       <c r="E25" t="n">
-        <v>51.24678656800311</v>
+        <v>331.72380835142</v>
       </c>
       <c r="F25" t="n">
-        <v>51.24678656800311</v>
+        <v>184.8338608535096</v>
       </c>
       <c r="G25" t="n">
         <v>51.24678656800311</v>
@@ -6180,19 +6180,19 @@
         <v>1216.838891429094</v>
       </c>
       <c r="U25" t="n">
-        <v>927.7205539329318</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V25" t="n">
-        <v>673.036065727045</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="W25" t="n">
-        <v>383.6188956900843</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="X25" t="n">
-        <v>155.629344792067</v>
+        <v>734.1648523251898</v>
       </c>
       <c r="Y25" t="n">
-        <v>51.24678656800311</v>
+        <v>513.3722731816597</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1699.061860336089</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C26" t="n">
-        <v>1330.099343395678</v>
+        <v>549.0536009814539</v>
       </c>
       <c r="D26" t="n">
-        <v>1330.099343395678</v>
+        <v>190.7879023747034</v>
       </c>
       <c r="E26" t="n">
-        <v>944.3110907974335</v>
+        <v>190.7879023747034</v>
       </c>
       <c r="F26" t="n">
-        <v>533.3251860078259</v>
+        <v>190.7879023747034</v>
       </c>
       <c r="G26" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H26" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I26" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K26" t="n">
         <v>442.5171852816082</v>
@@ -6253,25 +6253,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S26" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T26" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U26" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V26" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W26" t="n">
-        <v>2209.570673130041</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X26" t="n">
-        <v>2085.661700400211</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y26" t="n">
-        <v>2085.661700400211</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K27" t="n">
-        <v>614.543024838023</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L27" t="n">
-        <v>909.2465818694948</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M27" t="n">
-        <v>1272.508600828715</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N27" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O27" t="n">
-        <v>1991.864164601822</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P27" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q27" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R27" t="n">
         <v>2562.339328400155</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>483.824890072889</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C28" t="n">
-        <v>314.8887071449822</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D28" t="n">
-        <v>314.8887071449822</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E28" t="n">
-        <v>314.8887071449822</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F28" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G28" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H28" t="n">
         <v>51.24678656800311</v>
@@ -6408,28 +6408,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R28" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S28" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T28" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U28" t="n">
-        <v>1114.255484944676</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V28" t="n">
-        <v>1114.255484944676</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W28" t="n">
-        <v>1114.255484944676</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X28" t="n">
-        <v>886.2659340466589</v>
+        <v>155.629344792067</v>
       </c>
       <c r="Y28" t="n">
-        <v>665.4733549031288</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1263.725694231566</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="C29" t="n">
-        <v>1263.725694231566</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="D29" t="n">
-        <v>1263.725694231566</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="E29" t="n">
-        <v>877.9374416333219</v>
+        <v>1114.439264978877</v>
       </c>
       <c r="F29" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G29" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H29" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I29" t="n">
         <v>51.24678656800311</v>
@@ -6490,25 +6490,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S29" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T29" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U29" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V29" t="n">
-        <v>2413.93062453258</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W29" t="n">
-        <v>2413.93062453258</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X29" t="n">
-        <v>2040.4648662715</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="Y29" t="n">
-        <v>1650.325534295688</v>
+        <v>1500.227517577121</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>165.4432786182523</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I30" t="n">
         <v>51.24678656800311</v>
@@ -6545,25 +6545,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K30" t="n">
-        <v>684.9695361605188</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L30" t="n">
-        <v>1117.223096727985</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M30" t="n">
-        <v>1480.485115687206</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N30" t="n">
-        <v>1867.770244284151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O30" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P30" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q30" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R30" t="n">
         <v>2562.339328400155</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>393.5881086072305</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="C31" t="n">
-        <v>393.5881086072305</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D31" t="n">
-        <v>346.0498276483066</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E31" t="n">
-        <v>198.1367340659135</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F31" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G31" t="n">
         <v>51.24678656800311</v>
@@ -6648,25 +6648,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S31" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T31" t="n">
-        <v>1636.446120074497</v>
+        <v>1273.245826142264</v>
       </c>
       <c r="U31" t="n">
-        <v>1347.327782578335</v>
+        <v>984.1274886461021</v>
       </c>
       <c r="V31" t="n">
-        <v>1092.643294372448</v>
+        <v>729.4430004402152</v>
       </c>
       <c r="W31" t="n">
-        <v>803.2261243354876</v>
+        <v>440.0258304032546</v>
       </c>
       <c r="X31" t="n">
-        <v>575.2365734374703</v>
+        <v>440.0258304032546</v>
       </c>
       <c r="Y31" t="n">
-        <v>575.2365734374703</v>
+        <v>219.2332512597245</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1330.099343395678</v>
+        <v>1485.986492286525</v>
       </c>
       <c r="C32" t="n">
-        <v>1330.099343395678</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D32" t="n">
-        <v>1330.099343395678</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E32" t="n">
-        <v>944.3110907974335</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F32" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G32" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H32" t="n">
         <v>117.6204357321147</v>
@@ -6700,22 +6700,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J32" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816072</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L32" t="n">
-        <v>795.7553530872906</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M32" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N32" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O32" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P32" t="n">
         <v>2360.886721764997</v>
@@ -6727,25 +6727,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S32" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T32" t="n">
-        <v>2480.304273696691</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U32" t="n">
-        <v>2480.304273696691</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V32" t="n">
-        <v>2480.304273696691</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W32" t="n">
-        <v>2480.304273696691</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X32" t="n">
-        <v>2106.838515435611</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="Y32" t="n">
-        <v>1716.6991834598</v>
+        <v>1485.986492286525</v>
       </c>
     </row>
     <row r="33">
@@ -6761,46 +6761,46 @@
         <v>756.8511118155119</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E33" t="n">
-        <v>448.6792471488051</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F33" t="n">
-        <v>302.1446891756901</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G33" t="n">
-        <v>165.4432786182523</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I33" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J33" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K33" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L33" t="n">
-        <v>821.9680821844939</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M33" t="n">
-        <v>1456.147065963532</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.432194560478</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O33" t="n">
-        <v>2175.502629736639</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q33" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R33" t="n">
         <v>2562.339328400155</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>685.1760210978775</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C34" t="n">
-        <v>516.2398381699707</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D34" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E34" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F34" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G34" t="n">
         <v>51.24678656800311</v>
@@ -6888,22 +6888,22 @@
         <v>1439.817372234359</v>
       </c>
       <c r="T34" t="n">
-        <v>1388.642639345312</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U34" t="n">
-        <v>1388.642639345312</v>
+        <v>1105.298052573584</v>
       </c>
       <c r="V34" t="n">
-        <v>1133.958151139425</v>
+        <v>850.6135643676972</v>
       </c>
       <c r="W34" t="n">
-        <v>1133.958151139425</v>
+        <v>850.6135643676972</v>
       </c>
       <c r="X34" t="n">
-        <v>905.9686002414077</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y34" t="n">
-        <v>685.1760210978775</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1819.431341154229</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C35" t="n">
-        <v>1450.468824213818</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="D35" t="n">
-        <v>1092.203125607067</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="E35" t="n">
-        <v>1092.203125607067</v>
+        <v>1026.346145500898</v>
       </c>
       <c r="F35" t="n">
-        <v>837.3843300102556</v>
+        <v>615.3602407112903</v>
       </c>
       <c r="G35" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H35" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I35" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J35" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L35" t="n">
         <v>795.7553530872915</v>
@@ -6976,13 +6976,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W35" t="n">
-        <v>2209.570673130041</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X35" t="n">
-        <v>2209.570673130041</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y35" t="n">
-        <v>1819.431341154229</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J36" t="n">
-        <v>143.6627691908472</v>
+        <v>168.0008189145203</v>
       </c>
       <c r="K36" t="n">
-        <v>590.20497511435</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L36" t="n">
-        <v>884.9085321458217</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M36" t="n">
-        <v>1248.170551105042</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N36" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O36" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P36" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q36" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R36" t="n">
         <v>2562.339328400155</v>
@@ -7125,22 +7125,22 @@
         <v>1439.817372234359</v>
       </c>
       <c r="T37" t="n">
-        <v>1216.838891429094</v>
+        <v>1333.24891234856</v>
       </c>
       <c r="U37" t="n">
-        <v>927.7205539329318</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V37" t="n">
-        <v>927.7205539329318</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W37" t="n">
-        <v>638.3033838959711</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X37" t="n">
-        <v>410.3138329979538</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y37" t="n">
-        <v>189.5212538544237</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1416.181083656475</v>
+        <v>1936.747355174407</v>
       </c>
       <c r="C38" t="n">
-        <v>1330.099343395678</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="D38" t="n">
-        <v>1330.099343395678</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E38" t="n">
-        <v>944.3110907974335</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F38" t="n">
-        <v>533.3251860078259</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G38" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H38" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I38" t="n">
         <v>51.24678656800311</v>
@@ -7177,10 +7177,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L38" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M38" t="n">
         <v>1220.470313923562</v>
@@ -7201,25 +7201,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S38" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T38" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U38" t="n">
-        <v>2100.01262627016</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V38" t="n">
-        <v>1768.949738926589</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W38" t="n">
-        <v>1416.181083656475</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X38" t="n">
-        <v>1416.181083656475</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="Y38" t="n">
-        <v>1416.181083656475</v>
+        <v>2084.871465656512</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>165.4432786182523</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I39" t="n">
         <v>51.24678656800311</v>
@@ -7256,22 +7256,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K39" t="n">
-        <v>527.2645251530223</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L39" t="n">
-        <v>821.9680821844939</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M39" t="n">
-        <v>1456.147065963532</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.432194560478</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O39" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q39" t="n">
         <v>2538.001278676482</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>833.0891146802707</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="C40" t="n">
-        <v>664.1529317523638</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="D40" t="n">
-        <v>514.036292340028</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="E40" t="n">
-        <v>366.1231987576349</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="F40" t="n">
-        <v>219.2332512597245</v>
+        <v>205.3681451342956</v>
       </c>
       <c r="G40" t="n">
         <v>51.24678656800311</v>
@@ -7356,28 +7356,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R40" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S40" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T40" t="n">
-        <v>1533.86271359008</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U40" t="n">
-        <v>1524.947328691001</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V40" t="n">
-        <v>1524.947328691001</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W40" t="n">
-        <v>1235.53015865404</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X40" t="n">
-        <v>1235.53015865404</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="Y40" t="n">
-        <v>1014.73757951051</v>
+        <v>352.2580926322059</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1263.725694231566</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="C41" t="n">
-        <v>1263.725694231566</v>
+        <v>1815.096543250394</v>
       </c>
       <c r="D41" t="n">
-        <v>1263.725694231566</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E41" t="n">
-        <v>877.9374416333219</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F41" t="n">
-        <v>466.9515368437143</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G41" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H41" t="n">
         <v>51.24678656800311</v>
@@ -7411,13 +7411,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J41" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816078</v>
       </c>
       <c r="L41" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M41" t="n">
         <v>1220.470313923562</v>
@@ -7444,19 +7444,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U41" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V41" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W41" t="n">
-        <v>2413.93062453258</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X41" t="n">
-        <v>2040.4648662715</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="Y41" t="n">
-        <v>1650.325534295688</v>
+        <v>2184.059060190806</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E42" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F42" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I42" t="n">
         <v>51.24678656800311</v>
@@ -7493,22 +7493,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K42" t="n">
-        <v>590.20497511435</v>
+        <v>458.7060632252732</v>
       </c>
       <c r="L42" t="n">
-        <v>884.9085321458217</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M42" t="n">
-        <v>1248.170551105042</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N42" t="n">
-        <v>1635.455679701987</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O42" t="n">
-        <v>1967.526114878149</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P42" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q42" t="n">
         <v>2538.001278676482</v>
@@ -7523,16 +7523,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U42" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V42" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y42" t="n">
         <v>1099.519478116707</v>
@@ -7569,16 +7569,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J43" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K43" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L43" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M43" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N43" t="n">
         <v>1123.088724245823</v>
@@ -7596,25 +7596,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S43" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T43" t="n">
-        <v>1439.817372234359</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U43" t="n">
-        <v>1150.699034738196</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V43" t="n">
-        <v>896.0145465323095</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W43" t="n">
-        <v>606.597376495349</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X43" t="n">
-        <v>378.6078255973316</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y43" t="n">
-        <v>157.8152464538015</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1059.365742829028</v>
+        <v>1277.379137212821</v>
       </c>
       <c r="C44" t="n">
-        <v>690.4032258886161</v>
+        <v>1277.379137212821</v>
       </c>
       <c r="D44" t="n">
-        <v>690.4032258886161</v>
+        <v>919.1134386060701</v>
       </c>
       <c r="E44" t="n">
-        <v>690.4032258886161</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="F44" t="n">
-        <v>279.4173210990086</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G44" t="n">
         <v>117.6204357321147</v>
@@ -7645,19 +7645,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I44" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L44" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N44" t="n">
         <v>1656.671415230817</v>
@@ -7675,25 +7675,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S44" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T44" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U44" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V44" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W44" t="n">
-        <v>2209.570673130041</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X44" t="n">
-        <v>1836.104914868961</v>
+        <v>1277.379137212821</v>
       </c>
       <c r="Y44" t="n">
-        <v>1445.96558289315</v>
+        <v>1277.379137212821</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6792471488051</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4432786182523</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057882</v>
       </c>
       <c r="I45" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J45" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K45" t="n">
-        <v>684.9695361605188</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L45" t="n">
-        <v>979.6730931919906</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M45" t="n">
-        <v>1342.935112151211</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N45" t="n">
-        <v>1730.220240748156</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O45" t="n">
-        <v>2062.290675924318</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P45" t="n">
-        <v>2309.473409756615</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q45" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R45" t="n">
         <v>2562.339328400155</v>
@@ -7760,16 +7760,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V45" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y45" t="n">
         <v>1099.519478116707</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>685.1760210978775</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C46" t="n">
-        <v>516.2398381699707</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D46" t="n">
-        <v>366.1231987576349</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E46" t="n">
-        <v>366.1231987576349</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F46" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G46" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H46" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I46" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J46" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K46" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L46" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M46" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N46" t="n">
         <v>1123.088724245823</v>
@@ -7833,25 +7833,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S46" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T46" t="n">
-        <v>1377.034235108608</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U46" t="n">
-        <v>1377.034235108608</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V46" t="n">
-        <v>1377.034235108608</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W46" t="n">
-        <v>1087.617065071647</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X46" t="n">
-        <v>1087.617065071647</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="Y46" t="n">
-        <v>866.8244859281173</v>
+        <v>131.4655134886758</v>
       </c>
     </row>
   </sheetData>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8616,19 +8616,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>228.6366291168976</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>243.4589942030132</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>106.5751679310654</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>125.1345093121142</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>315.0662328911525</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>138.4700490477088</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>163.2630572184532</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>154.7554707463306</v>
       </c>
       <c r="R18" t="n">
-        <v>25.09867634130191</v>
+        <v>25.83971236391598</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>142.8400637484343</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>117.3679588626038</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>138.9393975111056</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>193.3273467878353</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L30" t="n">
-        <v>138.939397511106</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>231.2582814363242</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>30.3692565058948</v>
+        <v>54.95314511566558</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10688,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>105.1672460959154</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>168.7434581780645</v>
+        <v>35.91627445172429</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>138.9393975111057</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35.89890307924367</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>332.2069378767452</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>302.3013023779137</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>126.3064237640716</v>
+        <v>126.8147449650819</v>
       </c>
       <c r="T11" t="n">
-        <v>207.206481068835</v>
+        <v>207.3041300455733</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0552703882194</v>
+        <v>251.0570549497589</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>59.23477758834619</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>93.47880518414398</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>179.9111597783862</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3627843393969</v>
+        <v>128.7869974351525</v>
       </c>
       <c r="H13" t="n">
-        <v>147.7510386106894</v>
+        <v>147.8400024774763</v>
       </c>
       <c r="I13" t="n">
-        <v>106.4862101721974</v>
+        <v>106.7871227195706</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>104.0838226109871</v>
+        <v>104.5337359904636</v>
       </c>
       <c r="S13" t="n">
-        <v>195.6415993865939</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>70.35839823968715</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>317.0848441699882</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>257.4061290184934</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.6729560199217</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>302.3013023779137</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>70.53873847619403</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0552703882194</v>
+        <v>251.0570549497589</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>86.31708465062994</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>93.47880518414398</v>
+        <v>93.59407512775772</v>
       </c>
       <c r="I15" t="n">
-        <v>22.53032196995868</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>36.70445561838727</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>81.33812812303687</v>
       </c>
       <c r="G16" t="n">
-        <v>70.25890275492236</v>
+        <v>166.3727905002829</v>
       </c>
       <c r="H16" t="n">
-        <v>147.7510386106894</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>106.4862101721974</v>
+        <v>106.7871227195706</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>104.5337359904636</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.9887561650171</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2307645096813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>384.929980657744</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.482210721521255</v>
+        <v>71.39872983557751</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>126.3064237640716</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>207.206481068835</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0552703882194</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>130.1832608025323</v>
+        <v>63.37583213690694</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>93.59407512775772</v>
       </c>
       <c r="I18" t="n">
-        <v>22.53032196995868</v>
+        <v>22.94125251372249</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.7510386106894</v>
+        <v>147.8400024774763</v>
       </c>
       <c r="I19" t="n">
-        <v>106.4862101721974</v>
+        <v>106.7871227195706</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>104.0838226109871</v>
+        <v>104.5337359904636</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>118.8369706568458</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>161.4049398901259</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>187.8467986049085</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>302.3013023779137</v>
+        <v>302.5297541387407</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>71.39872983557746</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>126.8147449650819</v>
       </c>
       <c r="T20" t="n">
-        <v>207.206481068835</v>
+        <v>207.3041300455733</v>
       </c>
       <c r="U20" t="n">
-        <v>25.36449089377189</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>63.37583213690694</v>
       </c>
       <c r="H21" t="n">
-        <v>93.47880518414398</v>
+        <v>93.59407512775772</v>
       </c>
       <c r="I21" t="n">
-        <v>22.53032196995869</v>
+        <v>22.94125251372246</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>36.70445561838832</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.132675654347452</v>
+        <v>166.3727905002829</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.8400024774763</v>
       </c>
       <c r="I22" t="n">
-        <v>106.4862101721974</v>
+        <v>106.7871227195706</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>104.0838226109871</v>
+        <v>104.5337359904636</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>195.815979481308</v>
       </c>
       <c r="T22" t="n">
-        <v>220.9887561650171</v>
+        <v>221.0315097615302</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2302187190875</v>
+        <v>165.8691815616814</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>97.8947129107172</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>207.7584247917827</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>65.70991267247049</v>
@@ -24259,22 +24259,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3066000448042</v>
+        <v>34.05539650215275</v>
       </c>
       <c r="H25" t="n">
         <v>147.2515091551288</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.2459207102715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>273.4019981243207</v>
       </c>
       <c r="H26" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>247.0612176759377</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>31.66705580685083</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I28" t="n">
         <v>104.7965952039006</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>115.2459207102715</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>132.5916601227767</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>180.827641641235</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>101.5525748688776</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>147.2515091551288</v>
@@ -24888,10 +24888,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S31" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7486959972119</v>
+        <v>55.84286536603869</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>130.0327968592125</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>125.4434808238039</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.045250128462</v>
@@ -24979,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
         <v>147.2515091551288</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>170.0857104370557</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2271541212006</v>
+        <v>175.8017236542458</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>154.6054381008679</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>154.0939357335051</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.94025756838093</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>115.2459207102716</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>236.0909722861974</v>
       </c>
       <c r="C38" t="n">
-        <v>280.0519689128186</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>13.72645506417464</v>
       </c>
       <c r="H40" t="n">
         <v>147.2515091551288</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.4009230711128</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>109.8444536544487</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>325.7685672873072</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.32920489499688</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,10 +25836,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>100.4154405304713</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>251.3687862597291</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>301.0185525624054</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>355.7693890980459</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>100.4154405304713</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H46" t="n">
         <v>147.2515091551288</v>
@@ -26073,22 +26073,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
-        <v>158.593390242719</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>327897.5868709115</v>
+        <v>328552.4786298488</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>738423.0797149856</v>
+        <v>733853.6777525332</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>738423.0797149856</v>
+        <v>733853.6777525332</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>738423.0797149853</v>
+        <v>733853.6777525332</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738423.0797149854</v>
+        <v>733853.6777525332</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>764080.135292489</v>
+        <v>764080.1352924892</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>764080.1352924893</v>
+        <v>764080.1352924892</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>764080.1352924892</v>
+        <v>764080.1352924891</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>764080.1352924892</v>
+        <v>764080.1352924891</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>764080.1352924892</v>
+        <v>764080.1352924891</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>112882.7758080187</v>
       </c>
       <c r="D2" t="n">
-        <v>112882.7758080187</v>
+        <v>114560.4168962155</v>
       </c>
       <c r="E2" t="n">
-        <v>310512.0621270547</v>
+        <v>308596.0857953113</v>
       </c>
       <c r="F2" t="n">
-        <v>310512.0621270546</v>
+        <v>308596.0857953111</v>
       </c>
       <c r="G2" t="n">
-        <v>310512.0621270546</v>
+        <v>308596.0857953111</v>
       </c>
       <c r="H2" t="n">
-        <v>310512.0621270546</v>
+        <v>308596.0857953112</v>
       </c>
       <c r="I2" t="n">
+        <v>321270.2120190239</v>
+      </c>
+      <c r="J2" t="n">
         <v>321270.212019024</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>321270.212019024</v>
+      </c>
+      <c r="L2" t="n">
+        <v>321270.2120190239</v>
+      </c>
+      <c r="M2" t="n">
         <v>321270.2120190238</v>
       </c>
-      <c r="K2" t="n">
-        <v>321270.2120190236</v>
-      </c>
-      <c r="L2" t="n">
-        <v>321270.212019024</v>
-      </c>
-      <c r="M2" t="n">
-        <v>321270.212019024</v>
-      </c>
       <c r="N2" t="n">
+        <v>321270.2120190239</v>
+      </c>
+      <c r="O2" t="n">
+        <v>321270.2120190239</v>
+      </c>
+      <c r="P2" t="n">
         <v>321270.2120190238</v>
-      </c>
-      <c r="O2" t="n">
-        <v>321270.2120190238</v>
-      </c>
-      <c r="P2" t="n">
-        <v>321270.2120190239</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19708.98312032399</v>
       </c>
       <c r="E3" t="n">
-        <v>905263.660022025</v>
+        <v>880286.3742845999</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>33606.32541564663</v>
+        <v>39591.45526974027</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150121.4568185953</v>
+        <v>148426.9071696079</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>64504.44331886784</v>
       </c>
       <c r="D4" t="n">
-        <v>64504.44331886784</v>
+        <v>61244.83920534592</v>
       </c>
       <c r="E4" t="n">
-        <v>14387.07870086139</v>
+        <v>14283.00385633241</v>
       </c>
       <c r="F4" t="n">
-        <v>14387.0787008614</v>
+        <v>14283.0038563324</v>
       </c>
       <c r="G4" t="n">
-        <v>14387.07870086139</v>
+        <v>14283.00385633242</v>
       </c>
       <c r="H4" t="n">
-        <v>14387.07870086139</v>
+        <v>14283.00385633241</v>
       </c>
       <c r="I4" t="n">
-        <v>14971.45584523218</v>
+        <v>14971.45584523219</v>
       </c>
       <c r="J4" t="n">
         <v>14971.45584523218</v>
@@ -26450,13 +26450,13 @@
         <v>14971.45584523219</v>
       </c>
       <c r="M4" t="n">
-        <v>14971.45584523219</v>
+        <v>14971.45584523218</v>
       </c>
       <c r="N4" t="n">
-        <v>14971.45584523219</v>
+        <v>14971.45584523218</v>
       </c>
       <c r="O4" t="n">
-        <v>14971.45584523219</v>
+        <v>14971.45584523218</v>
       </c>
       <c r="P4" t="n">
         <v>14971.45584523218</v>
@@ -26475,19 +26475,19 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>34129.29174257201</v>
       </c>
       <c r="E5" t="n">
-        <v>56309.55358208732</v>
+        <v>55775.15735506159</v>
       </c>
       <c r="F5" t="n">
-        <v>56309.55358208732</v>
+        <v>55775.15735506157</v>
       </c>
       <c r="G5" t="n">
-        <v>56309.55358208731</v>
+        <v>55775.15735506157</v>
       </c>
       <c r="H5" t="n">
-        <v>56309.55358208731</v>
+        <v>55775.15735506157</v>
       </c>
       <c r="I5" t="n">
         <v>59310.17243984471</v>
@@ -26508,7 +26508,7 @@
         <v>59310.17243984471</v>
       </c>
       <c r="O5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984472</v>
       </c>
       <c r="P5" t="n">
         <v>59310.17243984471</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-399.941480883881</v>
+        <v>13235.66509214738</v>
       </c>
       <c r="C6" t="n">
-        <v>-399.9414808839101</v>
+        <v>13235.66509214739</v>
       </c>
       <c r="D6" t="n">
-        <v>-399.9414808838956</v>
+        <v>-2029.775801943252</v>
       </c>
       <c r="E6" t="n">
-        <v>-671187.9857518092</v>
+        <v>-642331.5489548895</v>
       </c>
       <c r="F6" t="n">
-        <v>234075.6742702156</v>
+        <v>237954.8253297104</v>
       </c>
       <c r="G6" t="n">
-        <v>234075.6742702157</v>
+        <v>237954.8253297104</v>
       </c>
       <c r="H6" t="n">
-        <v>234075.6742702157</v>
+        <v>237954.8253297102</v>
       </c>
       <c r="I6" t="n">
-        <v>208154.7955964088</v>
+        <v>206874.3821920176</v>
       </c>
       <c r="J6" t="n">
-        <v>241761.1210120553</v>
+        <v>246465.837461758</v>
       </c>
       <c r="K6" t="n">
-        <v>241761.1210120551</v>
+        <v>246465.8374617579</v>
       </c>
       <c r="L6" t="n">
-        <v>241761.1210120554</v>
+        <v>246465.8374617579</v>
       </c>
       <c r="M6" t="n">
-        <v>91639.66419346014</v>
+        <v>98038.93029214979</v>
       </c>
       <c r="N6" t="n">
-        <v>241761.1210120553</v>
+        <v>246465.8374617579</v>
       </c>
       <c r="O6" t="n">
-        <v>241761.1210120553</v>
+        <v>246465.8374617578</v>
       </c>
       <c r="P6" t="n">
-        <v>241761.1210120554</v>
+        <v>246465.8374617578</v>
       </c>
     </row>
   </sheetData>
@@ -26743,19 +26743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="E3" t="n">
-        <v>902.9081469343156</v>
+        <v>897.3592758975052</v>
       </c>
       <c r="F3" t="n">
-        <v>902.9081469343156</v>
+        <v>897.3592758975052</v>
       </c>
       <c r="G3" t="n">
-        <v>902.9081469343156</v>
+        <v>897.359275897505</v>
       </c>
       <c r="H3" t="n">
-        <v>902.9081469343155</v>
+        <v>897.3592758975053</v>
       </c>
       <c r="I3" t="n">
         <v>934.0648921175392</v>
@@ -26776,10 +26776,10 @@
         <v>934.0648921175392</v>
       </c>
       <c r="O3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="P3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>602.4038812322244</v>
+        <v>595.6040319160521</v>
       </c>
       <c r="F4" t="n">
-        <v>602.4038812322244</v>
+        <v>595.6040319160519</v>
       </c>
       <c r="G4" t="n">
-        <v>602.4038812322242</v>
+        <v>595.604031916052</v>
       </c>
       <c r="H4" t="n">
-        <v>602.4038812322242</v>
+        <v>595.604031916052</v>
       </c>
       <c r="I4" t="n">
         <v>640.5848321000389</v>
@@ -26831,7 +26831,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="P4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="E3" t="n">
-        <v>902.9081469343156</v>
+        <v>874.3458932107159</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>31.15674518322373</v>
+        <v>36.7056162200339</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>602.4038812322244</v>
+        <v>595.6040319160522</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>38.18095086781466</v>
+        <v>44.98080018398684</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>602.4038812322244</v>
+        <v>595.6040319160525</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>602.4038812322244</v>
+        <v>595.6040319160522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.629781495213326</v>
+        <v>3.607474475969867</v>
       </c>
       <c r="H11" t="n">
-        <v>37.17349973785349</v>
+        <v>36.94504797702641</v>
       </c>
       <c r="I11" t="n">
-        <v>139.9371510942119</v>
+        <v>139.0771597348285</v>
       </c>
       <c r="J11" t="n">
-        <v>308.0731671793623</v>
+        <v>306.1798868048478</v>
       </c>
       <c r="K11" t="n">
-        <v>461.7218178717425</v>
+        <v>458.8842813726524</v>
       </c>
       <c r="L11" t="n">
-        <v>572.8067433058775</v>
+        <v>569.2865283666154</v>
       </c>
       <c r="M11" t="n">
-        <v>637.3578699713775</v>
+        <v>633.4409525786444</v>
       </c>
       <c r="N11" t="n">
-        <v>647.6709866446523</v>
+        <v>643.6906894334938</v>
       </c>
       <c r="O11" t="n">
-        <v>611.5773469016248</v>
+        <v>607.8188651130685</v>
       </c>
       <c r="P11" t="n">
-        <v>521.9671162385457</v>
+        <v>518.7593389875623</v>
       </c>
       <c r="Q11" t="n">
-        <v>391.9755664412183</v>
+        <v>389.5666593168913</v>
       </c>
       <c r="R11" t="n">
-        <v>228.0092618486943</v>
+        <v>226.6080185511424</v>
       </c>
       <c r="S11" t="n">
-        <v>82.71364582217376</v>
+        <v>82.20532462116344</v>
       </c>
       <c r="T11" t="n">
-        <v>15.88936849529634</v>
+        <v>15.7917195185581</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2903825196170661</v>
+        <v>0.2885979580775893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.942104316047396</v>
+        <v>1.930169008534256</v>
       </c>
       <c r="H12" t="n">
-        <v>18.75663905235248</v>
+        <v>18.64136910873874</v>
       </c>
       <c r="I12" t="n">
-        <v>66.8663108814564</v>
+        <v>66.45538033769262</v>
       </c>
       <c r="J12" t="n">
-        <v>183.4862678595481</v>
+        <v>182.3586430387562</v>
       </c>
       <c r="K12" t="n">
-        <v>313.6072570347236</v>
+        <v>311.6799666105514</v>
       </c>
       <c r="L12" t="n">
-        <v>421.683658622484</v>
+        <v>419.0921788047736</v>
       </c>
       <c r="M12" t="n">
-        <v>492.0849400792019</v>
+        <v>489.0608053641403</v>
       </c>
       <c r="N12" t="n">
-        <v>505.1089641986602</v>
+        <v>502.0047896362846</v>
       </c>
       <c r="O12" t="n">
-        <v>462.0760211957153</v>
+        <v>459.2363079208676</v>
       </c>
       <c r="P12" t="n">
-        <v>370.8567443511909</v>
+        <v>368.577624094581</v>
       </c>
       <c r="Q12" t="n">
-        <v>247.9079123431729</v>
+        <v>246.3843808086886</v>
       </c>
       <c r="R12" t="n">
-        <v>120.580827622662</v>
+        <v>119.839791600048</v>
       </c>
       <c r="S12" t="n">
-        <v>36.07373587044174</v>
+        <v>35.85204276816917</v>
       </c>
       <c r="T12" t="n">
-        <v>7.82804327389279</v>
+        <v>7.779935608960443</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1277700207925919</v>
+        <v>0.1269848031930433</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.62819501906188</v>
+        <v>1.618188858175829</v>
       </c>
       <c r="H13" t="n">
-        <v>14.47613389675018</v>
+        <v>14.38717002996329</v>
       </c>
       <c r="I13" t="n">
-        <v>48.96426475506093</v>
+        <v>48.66335220768767</v>
       </c>
       <c r="J13" t="n">
-        <v>115.1133878476749</v>
+        <v>114.4059522730311</v>
       </c>
       <c r="K13" t="n">
-        <v>189.1666576691893</v>
+        <v>188.0041237044281</v>
       </c>
       <c r="L13" t="n">
-        <v>242.0681940158</v>
+        <v>240.580550787341</v>
       </c>
       <c r="M13" t="n">
-        <v>255.2269701244</v>
+        <v>253.658458922962</v>
       </c>
       <c r="N13" t="n">
-        <v>249.1582432351696</v>
+        <v>247.6270277243068</v>
       </c>
       <c r="O13" t="n">
-        <v>230.1379650579466</v>
+        <v>228.7236396992527</v>
       </c>
       <c r="P13" t="n">
-        <v>196.9227866690841</v>
+        <v>195.7125869924656</v>
       </c>
       <c r="Q13" t="n">
-        <v>136.3391301870817</v>
+        <v>135.5012506605233</v>
       </c>
       <c r="R13" t="n">
-        <v>73.20956876618234</v>
+        <v>72.75965538670589</v>
       </c>
       <c r="S13" t="n">
-        <v>28.3749986503784</v>
+        <v>28.20061855566421</v>
       </c>
       <c r="T13" t="n">
-        <v>6.956833263264397</v>
+        <v>6.914079666751267</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0888106374033754</v>
+        <v>0.08826484680959076</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.629781495213326</v>
+        <v>3.607474475969867</v>
       </c>
       <c r="H14" t="n">
-        <v>37.17349973785349</v>
+        <v>36.94504797702641</v>
       </c>
       <c r="I14" t="n">
-        <v>139.9371510942119</v>
+        <v>139.0771597348285</v>
       </c>
       <c r="J14" t="n">
-        <v>308.0731671793623</v>
+        <v>306.1798868048478</v>
       </c>
       <c r="K14" t="n">
-        <v>461.7218178717425</v>
+        <v>458.8842813726524</v>
       </c>
       <c r="L14" t="n">
-        <v>572.8067433058775</v>
+        <v>569.2865283666154</v>
       </c>
       <c r="M14" t="n">
-        <v>637.3578699713775</v>
+        <v>633.4409525786444</v>
       </c>
       <c r="N14" t="n">
-        <v>647.6709866446523</v>
+        <v>643.6906894334938</v>
       </c>
       <c r="O14" t="n">
-        <v>611.5773469016248</v>
+        <v>607.8188651130685</v>
       </c>
       <c r="P14" t="n">
-        <v>521.9671162385457</v>
+        <v>518.7593389875623</v>
       </c>
       <c r="Q14" t="n">
-        <v>391.9755664412183</v>
+        <v>389.5666593168913</v>
       </c>
       <c r="R14" t="n">
-        <v>228.0092618486943</v>
+        <v>226.6080185511424</v>
       </c>
       <c r="S14" t="n">
-        <v>82.71364582217376</v>
+        <v>82.20532462116344</v>
       </c>
       <c r="T14" t="n">
-        <v>15.88936849529634</v>
+        <v>15.7917195185581</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2903825196170661</v>
+        <v>0.2885979580775893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.942104316047396</v>
+        <v>1.930169008534256</v>
       </c>
       <c r="H15" t="n">
-        <v>18.75663905235248</v>
+        <v>18.64136910873874</v>
       </c>
       <c r="I15" t="n">
-        <v>66.8663108814564</v>
+        <v>66.45538033769262</v>
       </c>
       <c r="J15" t="n">
-        <v>183.4862678595481</v>
+        <v>182.3586430387562</v>
       </c>
       <c r="K15" t="n">
-        <v>313.6072570347236</v>
+        <v>311.6799666105514</v>
       </c>
       <c r="L15" t="n">
-        <v>421.683658622484</v>
+        <v>419.0921788047736</v>
       </c>
       <c r="M15" t="n">
-        <v>492.0849400792019</v>
+        <v>489.0608053641403</v>
       </c>
       <c r="N15" t="n">
-        <v>505.1089641986602</v>
+        <v>502.0047896362846</v>
       </c>
       <c r="O15" t="n">
-        <v>462.0760211957153</v>
+        <v>459.2363079208676</v>
       </c>
       <c r="P15" t="n">
-        <v>370.8567443511909</v>
+        <v>368.577624094581</v>
       </c>
       <c r="Q15" t="n">
-        <v>247.9079123431729</v>
+        <v>246.3843808086886</v>
       </c>
       <c r="R15" t="n">
-        <v>120.580827622662</v>
+        <v>119.839791600048</v>
       </c>
       <c r="S15" t="n">
-        <v>36.07373587044174</v>
+        <v>35.85204276816917</v>
       </c>
       <c r="T15" t="n">
-        <v>7.82804327389279</v>
+        <v>7.779935608960443</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1277700207925919</v>
+        <v>0.1269848031930433</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.62819501906188</v>
+        <v>1.618188858175829</v>
       </c>
       <c r="H16" t="n">
-        <v>14.47613389675018</v>
+        <v>14.38717002996329</v>
       </c>
       <c r="I16" t="n">
-        <v>48.96426475506093</v>
+        <v>48.66335220768767</v>
       </c>
       <c r="J16" t="n">
-        <v>115.1133878476749</v>
+        <v>114.4059522730311</v>
       </c>
       <c r="K16" t="n">
-        <v>189.1666576691893</v>
+        <v>188.0041237044281</v>
       </c>
       <c r="L16" t="n">
-        <v>242.0681940158</v>
+        <v>240.580550787341</v>
       </c>
       <c r="M16" t="n">
-        <v>255.2269701244</v>
+        <v>253.658458922962</v>
       </c>
       <c r="N16" t="n">
-        <v>249.1582432351696</v>
+        <v>247.6270277243068</v>
       </c>
       <c r="O16" t="n">
-        <v>230.1379650579466</v>
+        <v>228.7236396992527</v>
       </c>
       <c r="P16" t="n">
-        <v>196.9227866690841</v>
+        <v>195.7125869924656</v>
       </c>
       <c r="Q16" t="n">
-        <v>136.3391301870817</v>
+        <v>135.5012506605233</v>
       </c>
       <c r="R16" t="n">
-        <v>73.20956876618234</v>
+        <v>72.75965538670589</v>
       </c>
       <c r="S16" t="n">
-        <v>28.3749986503784</v>
+        <v>28.20061855566421</v>
       </c>
       <c r="T16" t="n">
-        <v>6.956833263264397</v>
+        <v>6.914079666751267</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0888106374033754</v>
+        <v>0.08826484680959076</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.629781495213326</v>
+        <v>3.607474475969866</v>
       </c>
       <c r="H17" t="n">
-        <v>37.17349973785349</v>
+        <v>36.94504797702641</v>
       </c>
       <c r="I17" t="n">
-        <v>139.9371510942119</v>
+        <v>139.0771597348284</v>
       </c>
       <c r="J17" t="n">
-        <v>308.0731671793623</v>
+        <v>306.1798868048477</v>
       </c>
       <c r="K17" t="n">
-        <v>461.7218178717425</v>
+        <v>458.8842813726523</v>
       </c>
       <c r="L17" t="n">
-        <v>572.8067433058775</v>
+        <v>569.2865283666152</v>
       </c>
       <c r="M17" t="n">
-        <v>637.3578699713775</v>
+        <v>633.4409525786443</v>
       </c>
       <c r="N17" t="n">
-        <v>647.6709866446523</v>
+        <v>643.6906894334937</v>
       </c>
       <c r="O17" t="n">
-        <v>611.5773469016248</v>
+        <v>607.8188651130683</v>
       </c>
       <c r="P17" t="n">
-        <v>521.9671162385457</v>
+        <v>518.7593389875622</v>
       </c>
       <c r="Q17" t="n">
-        <v>391.9755664412183</v>
+        <v>389.5666593168912</v>
       </c>
       <c r="R17" t="n">
-        <v>228.0092618486943</v>
+        <v>226.6080185511423</v>
       </c>
       <c r="S17" t="n">
-        <v>82.71364582217376</v>
+        <v>82.20532462116341</v>
       </c>
       <c r="T17" t="n">
-        <v>15.88936849529634</v>
+        <v>15.7917195185581</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2903825196170661</v>
+        <v>0.2885979580775893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.942104316047396</v>
+        <v>1.930169008534256</v>
       </c>
       <c r="H18" t="n">
-        <v>18.75663905235248</v>
+        <v>18.64136910873874</v>
       </c>
       <c r="I18" t="n">
-        <v>66.8663108814564</v>
+        <v>66.45538033769259</v>
       </c>
       <c r="J18" t="n">
-        <v>183.4862678595481</v>
+        <v>182.3586430387562</v>
       </c>
       <c r="K18" t="n">
-        <v>313.6072570347236</v>
+        <v>311.6799666105513</v>
       </c>
       <c r="L18" t="n">
-        <v>421.683658622484</v>
+        <v>419.0921788047735</v>
       </c>
       <c r="M18" t="n">
-        <v>492.0849400792019</v>
+        <v>489.0608053641402</v>
       </c>
       <c r="N18" t="n">
-        <v>505.1089641986602</v>
+        <v>502.0047896362844</v>
       </c>
       <c r="O18" t="n">
-        <v>462.0760211957153</v>
+        <v>459.2363079208675</v>
       </c>
       <c r="P18" t="n">
-        <v>370.8567443511909</v>
+        <v>368.5776240945809</v>
       </c>
       <c r="Q18" t="n">
-        <v>247.9079123431729</v>
+        <v>246.3843808086886</v>
       </c>
       <c r="R18" t="n">
-        <v>120.580827622662</v>
+        <v>119.839791600048</v>
       </c>
       <c r="S18" t="n">
-        <v>36.07373587044174</v>
+        <v>35.85204276816916</v>
       </c>
       <c r="T18" t="n">
-        <v>7.82804327389279</v>
+        <v>7.779935608960441</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1277700207925919</v>
+        <v>0.1269848031930432</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.62819501906188</v>
+        <v>1.618188858175828</v>
       </c>
       <c r="H19" t="n">
-        <v>14.47613389675018</v>
+        <v>14.38717002996328</v>
       </c>
       <c r="I19" t="n">
-        <v>48.96426475506093</v>
+        <v>48.66335220768766</v>
       </c>
       <c r="J19" t="n">
-        <v>115.1133878476749</v>
+        <v>114.4059522730311</v>
       </c>
       <c r="K19" t="n">
-        <v>189.1666576691893</v>
+        <v>188.004123704428</v>
       </c>
       <c r="L19" t="n">
-        <v>242.0681940158</v>
+        <v>240.5805507873409</v>
       </c>
       <c r="M19" t="n">
-        <v>255.2269701244</v>
+        <v>253.6584589229619</v>
       </c>
       <c r="N19" t="n">
-        <v>249.1582432351696</v>
+        <v>247.6270277243067</v>
       </c>
       <c r="O19" t="n">
-        <v>230.1379650579466</v>
+        <v>228.7236396992526</v>
       </c>
       <c r="P19" t="n">
-        <v>196.9227866690841</v>
+        <v>195.7125869924656</v>
       </c>
       <c r="Q19" t="n">
-        <v>136.3391301870817</v>
+        <v>135.5012506605233</v>
       </c>
       <c r="R19" t="n">
-        <v>73.20956876618234</v>
+        <v>72.75965538670587</v>
       </c>
       <c r="S19" t="n">
-        <v>28.3749986503784</v>
+        <v>28.2006185556642</v>
       </c>
       <c r="T19" t="n">
-        <v>6.956833263264397</v>
+        <v>6.914079666751265</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0888106374033754</v>
+        <v>0.08826484680959075</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.629781495213326</v>
+        <v>3.607474475969868</v>
       </c>
       <c r="H20" t="n">
-        <v>37.17349973785348</v>
+        <v>36.94504797702642</v>
       </c>
       <c r="I20" t="n">
-        <v>139.9371510942119</v>
+        <v>139.0771597348285</v>
       </c>
       <c r="J20" t="n">
-        <v>308.0731671793623</v>
+        <v>306.1798868048479</v>
       </c>
       <c r="K20" t="n">
-        <v>461.7218178717425</v>
+        <v>458.8842813726524</v>
       </c>
       <c r="L20" t="n">
-        <v>572.8067433058774</v>
+        <v>569.2865283666154</v>
       </c>
       <c r="M20" t="n">
-        <v>637.3578699713773</v>
+        <v>633.4409525786446</v>
       </c>
       <c r="N20" t="n">
-        <v>647.6709866446523</v>
+        <v>643.690689433494</v>
       </c>
       <c r="O20" t="n">
-        <v>611.5773469016248</v>
+        <v>607.8188651130686</v>
       </c>
       <c r="P20" t="n">
-        <v>521.9671162385457</v>
+        <v>518.7593389875624</v>
       </c>
       <c r="Q20" t="n">
-        <v>391.9755664412183</v>
+        <v>389.5666593168913</v>
       </c>
       <c r="R20" t="n">
-        <v>228.0092618486943</v>
+        <v>226.6080185511424</v>
       </c>
       <c r="S20" t="n">
-        <v>82.71364582217375</v>
+        <v>82.20532462116344</v>
       </c>
       <c r="T20" t="n">
-        <v>15.88936849529634</v>
+        <v>15.79171951855811</v>
       </c>
       <c r="U20" t="n">
-        <v>0.290382519617066</v>
+        <v>0.2885979580775894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.942104316047396</v>
+        <v>1.930169008534257</v>
       </c>
       <c r="H21" t="n">
-        <v>18.75663905235248</v>
+        <v>18.64136910873875</v>
       </c>
       <c r="I21" t="n">
-        <v>66.86631088145639</v>
+        <v>66.45538033769262</v>
       </c>
       <c r="J21" t="n">
-        <v>183.486267859548</v>
+        <v>182.3586430387563</v>
       </c>
       <c r="K21" t="n">
-        <v>313.6072570347235</v>
+        <v>311.6799666105514</v>
       </c>
       <c r="L21" t="n">
-        <v>421.6836586224839</v>
+        <v>419.0921788047737</v>
       </c>
       <c r="M21" t="n">
-        <v>492.0849400792019</v>
+        <v>489.0608053641403</v>
       </c>
       <c r="N21" t="n">
-        <v>505.1089641986601</v>
+        <v>502.0047896362846</v>
       </c>
       <c r="O21" t="n">
-        <v>462.0760211957152</v>
+        <v>459.2363079208677</v>
       </c>
       <c r="P21" t="n">
-        <v>370.8567443511909</v>
+        <v>368.577624094581</v>
       </c>
       <c r="Q21" t="n">
-        <v>247.9079123431728</v>
+        <v>246.3843808086887</v>
       </c>
       <c r="R21" t="n">
-        <v>120.580827622662</v>
+        <v>119.839791600048</v>
       </c>
       <c r="S21" t="n">
-        <v>36.07373587044173</v>
+        <v>35.85204276816918</v>
       </c>
       <c r="T21" t="n">
-        <v>7.828043273892789</v>
+        <v>7.779935608960444</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1277700207925919</v>
+        <v>0.1269848031930433</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.62819501906188</v>
+        <v>1.618188858175829</v>
       </c>
       <c r="H22" t="n">
-        <v>14.47613389675018</v>
+        <v>14.38717002996329</v>
       </c>
       <c r="I22" t="n">
-        <v>48.96426475506092</v>
+        <v>48.66335220768767</v>
       </c>
       <c r="J22" t="n">
-        <v>115.1133878476749</v>
+        <v>114.4059522730311</v>
       </c>
       <c r="K22" t="n">
-        <v>189.1666576691893</v>
+        <v>188.0041237044281</v>
       </c>
       <c r="L22" t="n">
-        <v>242.0681940157999</v>
+        <v>240.580550787341</v>
       </c>
       <c r="M22" t="n">
-        <v>255.2269701244</v>
+        <v>253.658458922962</v>
       </c>
       <c r="N22" t="n">
-        <v>249.1582432351695</v>
+        <v>247.6270277243068</v>
       </c>
       <c r="O22" t="n">
-        <v>230.1379650579466</v>
+        <v>228.7236396992527</v>
       </c>
       <c r="P22" t="n">
-        <v>196.922786669084</v>
+        <v>195.7125869924656</v>
       </c>
       <c r="Q22" t="n">
-        <v>136.3391301870816</v>
+        <v>135.5012506605233</v>
       </c>
       <c r="R22" t="n">
-        <v>73.20956876618234</v>
+        <v>72.7596553867059</v>
       </c>
       <c r="S22" t="n">
-        <v>28.37499865037839</v>
+        <v>28.20061855566421</v>
       </c>
       <c r="T22" t="n">
-        <v>6.956833263264396</v>
+        <v>6.914079666751268</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08881063740337539</v>
+        <v>0.08826484680959078</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H41" t="n">
         <v>38.45624955336179</v>
@@ -34131,22 +34131,22 @@
         <v>144.7659768979354</v>
       </c>
       <c r="J41" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491895</v>
       </c>
       <c r="K41" t="n">
         <v>477.6545005857143</v>
       </c>
       <c r="L41" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M41" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N41" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O41" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P41" t="n">
         <v>539.9786897190645</v>
@@ -34158,7 +34158,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S41" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T41" t="n">
         <v>16.4376645838976</v>
@@ -34207,7 +34207,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I42" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J42" t="n">
         <v>189.8178475575841</v>
@@ -34219,16 +34219,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M42" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N42" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O42" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P42" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q42" t="n">
         <v>256.4624964168761</v>
@@ -34286,7 +34286,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I43" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J43" t="n">
         <v>119.0856174753787</v>
@@ -34313,7 +34313,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R43" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S43" t="n">
         <v>29.35413767523479</v>
@@ -34322,7 +34322,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H44" t="n">
         <v>38.45624955336179</v>
@@ -34371,19 +34371,19 @@
         <v>318.70387994919</v>
       </c>
       <c r="K44" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L44" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M44" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N44" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O44" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P44" t="n">
         <v>539.9786897190645</v>
@@ -34395,7 +34395,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S44" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T44" t="n">
         <v>16.4376645838976</v>
@@ -34444,7 +34444,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I45" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J45" t="n">
         <v>189.8178475575841</v>
@@ -34456,16 +34456,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M45" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N45" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O45" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P45" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q45" t="n">
         <v>256.4624964168761</v>
@@ -34523,7 +34523,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I46" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J46" t="n">
         <v>119.0856174753787</v>
@@ -34550,7 +34550,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R46" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S46" t="n">
         <v>29.35413767523479</v>
@@ -34559,7 +34559,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>127.027262652676</v>
+        <v>125.1339822781615</v>
       </c>
       <c r="K11" t="n">
-        <v>241.631966826762</v>
+        <v>238.7944303276718</v>
       </c>
       <c r="L11" t="n">
-        <v>337.0403283358903</v>
+        <v>333.5201133966281</v>
       </c>
       <c r="M11" t="n">
-        <v>407.0116367441047</v>
+        <v>403.0947193513717</v>
       </c>
       <c r="N11" t="n">
-        <v>418.2579230480614</v>
+        <v>414.2776258369029</v>
       </c>
       <c r="O11" t="n">
-        <v>381.479135479938</v>
+        <v>377.7206536913817</v>
       </c>
       <c r="P11" t="n">
-        <v>290.7341204832762</v>
+        <v>287.5263432322927</v>
       </c>
       <c r="Q11" t="n">
-        <v>169.6698765667689</v>
+        <v>167.2609694424418</v>
       </c>
       <c r="R11" t="n">
-        <v>12.42372403456218</v>
+        <v>11.02248073701026</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>182.7396765332902</v>
+        <v>55.52101637208955</v>
       </c>
       <c r="K12" t="n">
-        <v>175.7658180603646</v>
+        <v>173.8385276361925</v>
       </c>
       <c r="L12" t="n">
-        <v>283.1292788426098</v>
+        <v>280.5377990248994</v>
       </c>
       <c r="M12" t="n">
-        <v>349.9509061571836</v>
+        <v>346.9267714421219</v>
       </c>
       <c r="N12" t="n">
-        <v>602.4038812322244</v>
+        <v>370.6630775529512</v>
       </c>
       <c r="O12" t="n">
-        <v>319.4797767512708</v>
+        <v>560.0990576794363</v>
       </c>
       <c r="P12" t="n">
-        <v>236.8823369368607</v>
+        <v>234.6032166802507</v>
       </c>
       <c r="Q12" t="n">
-        <v>214.5013061882167</v>
+        <v>316.4798944585162</v>
       </c>
       <c r="R12" t="n">
-        <v>20.42299347001891</v>
+        <v>19.68195744740487</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>21.75420773100217</v>
+        <v>21.04677215635832</v>
       </c>
       <c r="K13" t="n">
-        <v>166.8971658433065</v>
+        <v>165.7346318785452</v>
       </c>
       <c r="L13" t="n">
-        <v>269.6582192761161</v>
+        <v>268.1705760476572</v>
       </c>
       <c r="M13" t="n">
-        <v>294.8108470862406</v>
+        <v>293.2423358848025</v>
       </c>
       <c r="N13" t="n">
-        <v>293.2904156143982</v>
+        <v>291.7592001035354</v>
       </c>
       <c r="O13" t="n">
-        <v>254.7230929719863</v>
+        <v>253.3087676132924</v>
       </c>
       <c r="P13" t="n">
-        <v>194.2013459339776</v>
+        <v>192.9911462573591</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.17708693538727</v>
+        <v>49.3392074088289</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>127.027262652676</v>
+        <v>125.1339822781615</v>
       </c>
       <c r="K14" t="n">
-        <v>241.631966826762</v>
+        <v>238.7944303276718</v>
       </c>
       <c r="L14" t="n">
-        <v>337.0403283358903</v>
+        <v>333.5201133966281</v>
       </c>
       <c r="M14" t="n">
-        <v>407.0116367441047</v>
+        <v>403.0947193513717</v>
       </c>
       <c r="N14" t="n">
-        <v>418.2579230480614</v>
+        <v>414.2776258369029</v>
       </c>
       <c r="O14" t="n">
-        <v>381.479135479938</v>
+        <v>377.7206536913817</v>
       </c>
       <c r="P14" t="n">
-        <v>290.7341204832762</v>
+        <v>287.5263432322927</v>
       </c>
       <c r="Q14" t="n">
-        <v>169.6698765667689</v>
+        <v>167.2609694424418</v>
       </c>
       <c r="R14" t="n">
-        <v>12.42372403456218</v>
+        <v>11.02248073701026</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>182.7396765332902</v>
+        <v>55.52101637208955</v>
       </c>
       <c r="K15" t="n">
-        <v>300.9003273724788</v>
+        <v>173.8385276361925</v>
       </c>
       <c r="L15" t="n">
-        <v>283.1292788426098</v>
+        <v>595.6040319160519</v>
       </c>
       <c r="M15" t="n">
-        <v>349.9509061571836</v>
+        <v>485.3968204898308</v>
       </c>
       <c r="N15" t="n">
-        <v>373.7672521153269</v>
+        <v>370.6630775529512</v>
       </c>
       <c r="O15" t="n">
-        <v>319.4797767512708</v>
+        <v>316.6400634764232</v>
       </c>
       <c r="P15" t="n">
-        <v>236.8823369368607</v>
+        <v>234.6032166802507</v>
       </c>
       <c r="Q15" t="n">
-        <v>318.0034259930005</v>
+        <v>106.4026067226671</v>
       </c>
       <c r="R15" t="n">
-        <v>20.42299347001891</v>
+        <v>19.68195744740487</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>21.75420773100217</v>
+        <v>21.04677215635832</v>
       </c>
       <c r="K16" t="n">
-        <v>166.8971658433065</v>
+        <v>165.7346318785452</v>
       </c>
       <c r="L16" t="n">
-        <v>269.6582192761161</v>
+        <v>268.1705760476572</v>
       </c>
       <c r="M16" t="n">
-        <v>294.8108470862406</v>
+        <v>293.2423358848025</v>
       </c>
       <c r="N16" t="n">
-        <v>293.2904156143982</v>
+        <v>291.7592001035354</v>
       </c>
       <c r="O16" t="n">
-        <v>254.7230929719863</v>
+        <v>253.3087676132924</v>
       </c>
       <c r="P16" t="n">
-        <v>194.2013459339776</v>
+        <v>192.9911462573591</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.17708693538727</v>
+        <v>49.3392074088289</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>127.027262652676</v>
+        <v>125.1339822781615</v>
       </c>
       <c r="K17" t="n">
-        <v>241.631966826762</v>
+        <v>238.7944303276717</v>
       </c>
       <c r="L17" t="n">
-        <v>337.0403283358903</v>
+        <v>333.520113396628</v>
       </c>
       <c r="M17" t="n">
-        <v>407.0116367441047</v>
+        <v>403.0947193513716</v>
       </c>
       <c r="N17" t="n">
-        <v>418.2579230480614</v>
+        <v>414.2776258369028</v>
       </c>
       <c r="O17" t="n">
-        <v>381.479135479938</v>
+        <v>377.7206536913816</v>
       </c>
       <c r="P17" t="n">
-        <v>290.7341204832762</v>
+        <v>287.5263432322926</v>
       </c>
       <c r="Q17" t="n">
-        <v>169.6698765667689</v>
+        <v>167.2609694424417</v>
       </c>
       <c r="R17" t="n">
-        <v>12.42372403456218</v>
+        <v>11.0224807370102</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>56.64864119288137</v>
+        <v>55.52101637208952</v>
       </c>
       <c r="K18" t="n">
-        <v>339.0288752788178</v>
+        <v>173.8385276361923</v>
       </c>
       <c r="L18" t="n">
-        <v>283.1292788426098</v>
+        <v>280.5377990248993</v>
       </c>
       <c r="M18" t="n">
-        <v>349.9509061571836</v>
+        <v>346.9267714421218</v>
       </c>
       <c r="N18" t="n">
-        <v>373.7672521153269</v>
+        <v>370.6630775529511</v>
       </c>
       <c r="O18" t="n">
-        <v>319.4797767512708</v>
+        <v>316.6400634764231</v>
       </c>
       <c r="P18" t="n">
-        <v>555.3451055767978</v>
+        <v>553.0659853201878</v>
       </c>
       <c r="Q18" t="n">
-        <v>107.9261382571514</v>
+        <v>261.1580774689977</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>21.75420773100217</v>
+        <v>21.04677215635829</v>
       </c>
       <c r="K19" t="n">
-        <v>166.8971658433065</v>
+        <v>165.7346318785452</v>
       </c>
       <c r="L19" t="n">
-        <v>269.6582192761161</v>
+        <v>268.1705760476571</v>
       </c>
       <c r="M19" t="n">
-        <v>294.8108470862406</v>
+        <v>293.2423358848025</v>
       </c>
       <c r="N19" t="n">
-        <v>293.2904156143982</v>
+        <v>291.7592001035353</v>
       </c>
       <c r="O19" t="n">
-        <v>254.7230929719863</v>
+        <v>253.3087676132923</v>
       </c>
       <c r="P19" t="n">
-        <v>194.2013459339776</v>
+        <v>192.9911462573591</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.17708693538727</v>
+        <v>49.33920740882887</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>127.027262652676</v>
+        <v>125.1339822781616</v>
       </c>
       <c r="K20" t="n">
-        <v>241.6319668267619</v>
+        <v>238.7944303276719</v>
       </c>
       <c r="L20" t="n">
-        <v>337.0403283358901</v>
+        <v>333.5201133966281</v>
       </c>
       <c r="M20" t="n">
-        <v>407.0116367441046</v>
+        <v>403.0947193513719</v>
       </c>
       <c r="N20" t="n">
-        <v>418.2579230480614</v>
+        <v>414.277625836903</v>
       </c>
       <c r="O20" t="n">
-        <v>381.479135479938</v>
+        <v>377.7206536913818</v>
       </c>
       <c r="P20" t="n">
-        <v>290.7341204832762</v>
+        <v>287.5263432322928</v>
       </c>
       <c r="Q20" t="n">
-        <v>169.6698765667688</v>
+        <v>167.2609694424418</v>
       </c>
       <c r="R20" t="n">
-        <v>12.42372403456216</v>
+        <v>11.02248073701028</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>56.64864119288134</v>
+        <v>181.6120517124984</v>
       </c>
       <c r="K21" t="n">
-        <v>318.6058818087988</v>
+        <v>173.8385276361925</v>
       </c>
       <c r="L21" t="n">
-        <v>283.1292788426097</v>
+        <v>280.5377990248995</v>
       </c>
       <c r="M21" t="n">
-        <v>349.9509061571836</v>
+        <v>346.926771442122</v>
       </c>
       <c r="N21" t="n">
-        <v>373.7672521153269</v>
+        <v>370.6630775529513</v>
       </c>
       <c r="O21" t="n">
-        <v>319.4797767512708</v>
+        <v>316.6400634764232</v>
       </c>
       <c r="P21" t="n">
-        <v>555.3451055767978</v>
+        <v>351.9711755428546</v>
       </c>
       <c r="Q21" t="n">
-        <v>107.9261382571513</v>
+        <v>316.4798944585162</v>
       </c>
       <c r="R21" t="n">
-        <v>20.42299347001889</v>
+        <v>19.68195744740488</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>21.75420773100215</v>
+        <v>21.04677215635833</v>
       </c>
       <c r="K22" t="n">
-        <v>166.8971658433065</v>
+        <v>165.7346318785453</v>
       </c>
       <c r="L22" t="n">
-        <v>269.6582192761161</v>
+        <v>268.1705760476572</v>
       </c>
       <c r="M22" t="n">
-        <v>294.8108470862405</v>
+        <v>293.2423358848026</v>
       </c>
       <c r="N22" t="n">
-        <v>293.2904156143981</v>
+        <v>291.7592001035354</v>
       </c>
       <c r="O22" t="n">
-        <v>254.7230929719862</v>
+        <v>253.3087676132924</v>
       </c>
       <c r="P22" t="n">
-        <v>194.2013459339775</v>
+        <v>192.9911462573591</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.17708693538724</v>
+        <v>49.33920740882893</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K24" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L24" t="n">
         <v>297.6803606378502</v>
@@ -36454,13 +36454,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P24" t="n">
-        <v>388.6189266346379</v>
+        <v>418.422987301597</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K26" t="n">
         <v>257.5646495407337</v>
@@ -36676,7 +36676,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K27" t="n">
-        <v>379.9148430313201</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378502</v>
@@ -36697,7 +36697,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K30" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L30" t="n">
-        <v>436.6197581489562</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M30" t="n">
         <v>366.9313322820405</v>
@@ -36931,10 +36931,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q30" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K33" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L33" t="n">
-        <v>528.9386420741744</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M33" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N33" t="n">
         <v>391.1970995928739</v>
@@ -37165,13 +37165,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P33" t="n">
-        <v>249.6795291235323</v>
+        <v>443.0068759113678</v>
       </c>
       <c r="Q33" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R33" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>93.34947739681222</v>
+        <v>117.933366006583</v>
       </c>
       <c r="K36" t="n">
         <v>451.0527332560634</v>
@@ -37408,7 +37408,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R36" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>440.6071730376315</v>
       </c>
       <c r="O38" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P38" t="n">
         <v>308.745693963795</v>
@@ -37624,13 +37624,13 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K39" t="n">
-        <v>291.7547423394002</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L39" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M39" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N39" t="n">
         <v>391.1970995928739</v>
@@ -37642,7 +37642,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q39" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R39" t="n">
         <v>24.58388860977092</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225033</v>
       </c>
       <c r="K41" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L41" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M41" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N41" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O41" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P41" t="n">
         <v>308.745693963795</v>
@@ -37803,7 +37803,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R41" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K42" t="n">
-        <v>355.3309544215493</v>
+        <v>222.5037706952091</v>
       </c>
       <c r="L42" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M42" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N42" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O42" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P42" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q42" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R42" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K43" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L43" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M43" t="n">
         <v>303.6179906468033</v>
@@ -37952,13 +37952,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O43" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P43" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q43" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K44" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L44" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M44" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N44" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O44" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P44" t="n">
         <v>308.745693963795</v>
@@ -38040,7 +38040,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R44" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K45" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L45" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M45" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N45" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O45" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P45" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q45" t="n">
-        <v>255.4201198419603</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K46" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L46" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M46" t="n">
         <v>303.6179906468033</v>
@@ -38189,13 +38189,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O46" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P46" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
